--- a/Konkov_Segey/classification_base.xlsx
+++ b/Konkov_Segey/classification_base.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4483,6 +4483,9483 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/Wn4ejI_zOoVX2Lbs0nqO03EheoOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzpdYIa89meGFxVz_95HpQ5qb0F_ESfXBJ8g-adACIC8YMfDcd6Km_bZHGhA8SMVqgbzur4S_x4YvP3QDeu_SwaJQly0vPXEfSzREirjw0-IZ1oszUY6qezIK8wVgb2Gr8dd-ItDSpnNJF33egT52WfIFF2JD6Ij6atmWwBdXqRI13zALWf-DFYnAYqD6TL8yLCLGW8AocrfLGW9AEYdAaGZIUc-gq8qafH-Rb2BaAmuZ6ghqjAGKGshbnqmPRC27nbIkKtfDv30vlE7nQ3ZwCjEjc1fyWV-IwApzL3kZWJ90zGQ0SkJy2X0coUPAa2R9v4gG9idYIf0coVPKO0s1xigG9k3MHMWlNEUMvfBdzC91B3bO5OvNnD-duXWc4b9JbU6rXFTXp3pWzTxu3fn6wzPzFZKKwZzbERs4nfrtaxeCyzlg5JwhA5JgVFvVERJvtFwT4fj2t2mtehAaKqjIvN5nnklfslaNX5hYnJYThE740DXvOFaVBvXil4ko-mmA5_AsioiPBKQzgQPd1AjXks6EIEHtpCzIHSDzuWUz0FcGa0b1xCAO8lXYuaw9_U3obsPZQ_90ux2TgQGY60CkQbZmKmwLWpcE-F7sfZLbWqam7ILIkKIh5Ggcq-e8opMZR213OkcdYVxqbE6FtuuvgkAx8CVa0Folr0iFxuNYkN7vphmr_LtMajgwcizaonFF-kPP7bYcccw9SmoJRSaPhd7c77rQNMemz96xxxiorwjQmRqPCycY8JHZsaF3j64EpRflqTcKIJB_9RMTRtHB8facTVwCJAyEpkVzSnSgLGghNfKeXsZOs3MK7v2ApDIlMsH7IJyK3D6J7cC3Pb79eSSCMwR9fHpryW_QjU0o82zIzzUJtSZEz2i7OXMXOE6vAtQh1KKkdL6plE4leYQ_Zef9kdXjrarm_yb-VYfwtWiIVIy5kVcE3ry6t9WADJGQRquT7u0r6S8naqMjL1KdIwi99ByE000~2?etext=2202.vs0B-C9tOVWD53BD5Meyf6U_eDFzU8hGe3OsyzlkDBZieGNpa2thdnZhcnNnaWto.66f68749c5bb5924186c339983a8a1cfddedf291&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=купить+авто&amp;baobab_event_id=lqb8djzfao</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>купить авто</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://avtodor-tr.ru/transponder/where-buy/</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>купить транспондер</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.mvideo.ru/melkaya-kuhonnaya-tehnika-3/miksery-i-blendery-98/f/category=blendery-486</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>блендер купить</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://pravarfay.com/</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>купить права</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://kuntsevo.com/lada/niva/price/</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>купить ниву</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://sexshop-xl.ru/vibrator/</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>вибратор купить</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://leroymerlin.ru/catalogue/sayding/</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>купить сайдинг</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://vk.com/video-176475959_456239564</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>как делается</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-chixnut-specialno/</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>как чихнуть</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://englishforbusy.ru/transliterator/</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>как читается</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/We8ejI_zOoVX2Lcv0gKJ02DZX2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzmHh4X6rnybwuoWf1yZ8clL_aawYjxEgHINIgKv_ZFZA8TqckFG--cqVwf2HqJKe1pJsocrfrByXlvKXO1av9ZYUEwqxno7sZzLwWeN4LHWmOzIa1L9gFepmfM8MYI4k0EcR5RWw_8WW2vAlq7nImFF433eE7gTSPw4Hm7QFCbK0TeyYLG1sZn9L07QFCcE0hGvs5K1sXpCgW3jdVFSqbpwd4uWW2q7iyhvciW3ycK3n1a-frk4ZKEqxHmAjP-uzCPl9zIUshazVU8tVjVGQVGfVKQdqkTp-dHAxGfmiFxjx8W5QetAahyRRvQ-5mjmWEHylc6oyIxBQC1u42cxCxEIrMhOcsPoIhGQjlHKJHc4FRqjDU8DSqOYlsTwaYuQxX4zw0VCXO1A3cOLm1O3Mn7gdDmFAdTbDhucZp25xK-YrXL3RkfOC9EETOBvplZnL840FHiKORfAfN89LYgLpIVK4HRhHjZ0XaLJpvDzwJ-_oH-cC6HowuDxncx_gtEtzRqwTrkVcy0IkB_JsBMfh_LIJmX_raiz8MIQwS4rPfaUNFkE1J6JoIByqhkNzEKCX4nVJ_RWBqR0_9ZsO0CMVMWXzDyaD2jPxloMrdLT2vgLB7TUwzq4jq19-godcRbIgLHQzIWHTeoEOGcd_69h8EoO-o0B204W_ATk2RZa8Mjv8mcZ0iN9iIKmjTauKnBPZ2c3jTZKFaCYM16ZArrGchpWhPmrN4QPmxDfQb8tlvt5g_bfmbZFywBcgALuGBC0O25KnwcxQ1W96ak8uR6e3caLLcxh2Ha0~2?etext=2202.ey3wxeHuF5NBiiK29NL6b9nTDfJZL2D_eFCNvkRQbGtic3Bya3BkemNna2NvZWVw.ef450422081e3e97962af49c06eddd9e65c83879&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=купить+валюту&amp;baobab_event_id=lqb89m8t12</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>купить валюту</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>http://dgp51.kolp.gov.spb.ru/zdorovyj-obraz-zhizni-i-profilaktika-zabolevanij/kak-podrostku-nabrat-ves-i-myshechnuju-massu-rekomendacii-po-pitani/</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>как потолстеть</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://vkusvill.ru/media/journal/chistim-vilki-lozhki-i-nozhi-kak-vernut-blesk-stolovym-priboram.html</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>как чистить</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-poznakomitsya-s-devushkoj/</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>как познакомиться</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbOejI_zOoVX2Lbc0aKI00FXV2OQbKgbKga4mNGYKgdSQG9zFfSxUxRVkVE6Er-_u_M6ErphqD4HbKIrY8e4HEA6aZMfY3fqH89QGodfXX6IKj9IRRrHL6I4f4J3EcGbiOGqWaOIKGXWocO5lY5gGpme_GOYLRujSZ3eEEP9U1IWpPDC5Q3DaqWLeCsJH1MWpPFiA42RWrqLeCt1h0hGtZdFBSsbp-a40jXoCAkShua_8WFm9DeevtIBoDo2V0WpFtYz1-vK6hLh5Zq-jHEteL8xZqvj78hVjnCgdKRpQJrztazdL9hRztFwT4fj2t2m6RemXVdM7k7s6wy849X1nnGGmUL9c8rtMVOCWxs4EPbPoMerx4qpEILQ3LjwggRiVTmLWJ9d9F9xfYVfek4UqOD-m5m8gEHWLW5iCR0LeSx9_Q1oLsRZQ_A0ex3r57IO2MKBMkzN3BcfOy5CEjPfnez3hItQ1Y8mNQLIkGGhbShc4-e8YtKZR633egddoRv3MLz-UDa5I_dW3rqG_zU3bydtUl0o-ToTEE_V0H18zxKsxD1-reOT6jFC_8B2B3E_eCGiTvWlLdbUE3lvZjvfG5_sStzWN4_su1vpkn_J7co052LLYFwBr3XrDVPRMjTrnyQfgx7N-hOjYe96VDOpSwLIgRJgKaFi61t3yghy6tHziGpennyP_4vkKTLRo9LzSuExJNe1hecDHOO13kEBOAVTdi0vM0_YwW12K0wbSWKKoHa7SO0UhsrEBPK7xI6Nu0HdyOBi_813dw4BDrbKaAA2kx0oezJZ~2?etext=2202.5H7UNtqjUAxMgwZRTYq0UL-TrbBp1skIuBf5IKHGEgp0bm5hbmN5eHpnbmd2aWxw.487ecae17d73de4daa9eb280919fc843f4a045e2&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+apple&amp;baobab_event_id=lqb8hzx6wq</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>ремонт apple</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/Как_летать</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>как летать</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.yaklass.ru/p/russky-yazik/6-klass/morfologiia-imia-sushchestvitelnoe-10556/pravopisanie-pol-polu-s-imenami-sushchestvitelnymi-7244587/re-93e2a5f8-ff15-49ee-ae2d-1d36be0c2300</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>как пол</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/Wd8ejI_zOoVX2Lde0YKJ0AFXV2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EroV78ID0iHJck943iAMEdjA425PbNBysBSK6eNcqIVqpd7Vk3I_fLBSjdDKXQWvyDoMHgTuL8hdg0h9o05zFkyRpwCvga91EMWa2HaTvIWAac4qH1MgAY5HYPAaTi2KpGfyQ526Db3w3KGES05Lmg3Zw7N6Ngxmo1CbOKkgW7Ms_ablV0NhwoLbwivvRcakVKud4C2MWrdbV2tWdkbz22_pw1ItRVjfvr6fquaxy-XKEhrjswxlspcrysdkl9_JfrDgNu23pT25ASotzWYtGqvOMc1moFbymvI0dvSZDcP_FjjyRRpBCjtSPMObgzMmDytab6WrREcfch8_pnc9_9xfIRfek4Vqe1ym5m8gEPXL0DiAr3cv7rJkocny5SQOKCMGcpD-9860McyW0jDLAfLBi5AfR3wXZh1ODy86DYoQUfxiIwzbWNzuWXVDoWVxSH_K__v0QldU7qWjdvj4vUJlJIPdnA-bktJrdwMxT7McUQa_CSjB_Oavpa7Xy4gLBdGZJOyvA1dhelSbeo_x7snPioVxNVp4oezf3zO10t7Q_HU38cEmFx-bTLrlKcGCzkUrlcajpKsAps8GPqNaY6RcIgLIQTMbBh1ZT0pBilBRYM4q9gZWmX0a_04OcImGhKxb-YgDztVs0xgWorD8Cb2ssxi6MvH9tLQL868c_b9ui6E4kYWK5VQ61801nGEyHgdXoq-PX_XTHrrCzFcuejtELX0j-JkL-VCaPtFTDGgJc6TzhnTKf_n-Gpb3ouiNE2YinEajBG00~2?etext=2202.ERpVK-vduRSyQuILr8VacclYpISzUAeXIaFUanXWhWdrJs6ismx1rE8G9bXyHMM6ZXF2dHl1amlpbXF4eXlieA.c79585331d8a4b498735727da175a0291bd402d5&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=отзывы+заказать&amp;baobab_event_id=lqb8gkbybb</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>отзывы заказать</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://city-mobil.ru/</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>где такси</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.wildberries.ru/catalog/182280588/detail.aspx</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>декабрист где купить</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://postal.ninja/ru/track</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>где посылки</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://pravarfay.com/</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>изготовление табличек</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WhGejI_zOoVX2LaL0pKL0FEbZYOQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZlS_6dZKATTebf4HG8AOJswePHaT9JZUKMgMf5ov56d59hRKoYUFwTF9_w4ybI5PEIe2Y7bg66jyjYWaID_vlSDpQLJACupu-Z9KnIKmtdVqIS-pNcgGa7Jt7O-wnjLAf7H4Oabf154IqbA8spOiB7lW2cR5VYOF80GWT9lG0gHgxZ1eEFeTSOuGdP0QNbDUJEYi_M5U3-q7hsSaDNo93mAqEP9fWhGvaca2j3cIQ8AqEP9TXIWpS6k2j3cO5O5QE-SvvRcqkTq0W5iEPXLpjT48fdrYv8YRavt1W_ptOSmBOKwyIUqfWxLY3hl77fFywVqlgKtD7TEdtPzEv_uRK_l-_cSFfrIsm8Sx16NBrtksCnRVjnu_uhWGzua2NH_zDMOjOK9iqYQMScQoIdP7tjeQyIqbQxlUes-OSv8vFTCJz95mpsY1_s0kH1GoS6i0jWMOFN5H9sJ-q7bhip6r-GHfh3r57IO2UMRkNCCkQbZmKmwTf_nWyCB4AviG8BfAfNA9LYfL3QVK4TOh1jX0niMJJrFzhrHvFB3GdbHFZY09bN_Qw5AydijL4b-BeOkuR-de8lojL8aPpyhHNB6D3FroCmoKu_C73ENNkPody04RieGxp99xpJNbsdAKuYUxDkObBNvCUt11ZpX_V3oto4eZNbZlwLrNL-4qfWtzbfl9WPsnZkYcRbIgLHQzMoG7QDZO0gW_5vCDCWzy4C58YFymk01k0BLM1OWnilthbb8jv4-p5N4OF3Qqwh6f1l3gpQWfQnW3tOL1Ksn3sgtIAKnsOi0blbyO26P64XD8PxS0JO8em-7nMiUryMS3D0EUa0QmQchpmLlBqElebYqGuEq45zOAQuXP000~2?etext=2202.sSJrvvRT3WNxQQGLq55jPXpvb94uvXSjPDXWAmF2D4cjzyyUQhVTWXikkLlrlN6BY2JvYXNhdWRrb29mZGpxcg.a05f4447b96bcfaf0bf73c84f2c196e717f56690&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=где+купить+герлен&amp;baobab_event_id=lqb804l2p4</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>где купить герлен</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbuejI_zOoVX2Lb10eKI06EYWYOQbKgbKga4mOHY0QLofmdq-LpkxDb-vyuRxdpzZjSRxd19K8kiE8AeI5KIr1j2HLQb92fIRHMwKQH4BI8oea5Y2Mc4KX5rwEZ8IEcv0wPiLk0JwqBZXz9l63i_0N4CEexI7sH5gboH0hMbi_Kzeh1UJqwGOBlaINWKeCsJJ1MWpPD85Q3DaqGLeCsJx2X0cuDT5Q3DmQmAqDuvpotDfS_f10BOSZ2hdAy9H1K5O8bjqCpfIj0zHBHnQSsYnwUUGcsfZKFngVIPIwTF9sv7y-TTuqveVakT-FJvd3wTKhi27Aoted9aKyjIPV7nnkl5j5QKV7afis9simS0ICz9LvE7Dh4OaCs94Mjc9QlLi3VDv9HeDMpfgPhoXZaZaTypFKaN3VU87lG3va909GUp2c2BOIz2dPFxGUMkpCP7uOeSanXoKzV1J3fsd_6334o4mOOncAvIgLo2bKfbymbrXCMw4JQmOT7KysJV45yYF-n_Q8q_M8CZulyACAX_hm23-kVUPFM_Rw2Zy6inU6loinYyDM6QcLV6p3BpodY2ZhD7fsMMwSIsXLpgOLb9A7GZJOy54EGoHkzBGb_stKM-Cq_sM4oEXFsOzk0SDgilelz28Dc4BEQtjAxhOSacP36lnG0IRqYVptgd9oDPtovdRXQQcIkLIgLLZvgpOtGConxb5u5BuWY3B19g0XNyKmCD8znX-g7Xei10QudIcuufPBFM7qsEsL_-xfHfalpGNdhwuhaIzXdfUK1g0UE8PGYGpocCiD75xhl2oiyaqW80~2?etext=2202.HpqSDh67F1dsQxtIRCQ6C3lAfMGp4dFjv6zgcY5UjVmPXmcDWT8xl0F-m303sH28YmJidnhrZ3p0cGhncnBqZA.9998ae2fa99e34bf27b25d28133b023dbe4bfc03&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=драцена+где+купить&amp;baobab_event_id=lqb8cpnha7</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>драцена где купить</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://media.halvacard.ru/construction-and-repair/s-chego-nachinat-remont-v-kvartire</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>этапы ремонта</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://obrazovaka.ru/question/kak-obrazuetsya-rosa-inej-dozhd-i-sneg-232624</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>как образуется</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://ru.wikipedia.org/wiki/Суровикино</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>где суровикино</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-poznakomitsya-s-devushkoj/</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>где купить гашиш</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/a/YFX_yxZ5UWOA5o0_</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>как громко</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://drova-moskva.ru/drova-na-dachu/</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>заказать дрова</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-vyrovnyat-steny/</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>как выровнять</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://zoon.ru/msk/autoservice/type/opel/</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>ремонт опель</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WaeejI_zOoVX2Lbv0kKH00DWU2OQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZjSM_fythPpYZ-VKNnwOuWgX6HLeX9PRnHLbv2iHM3APWK-Bi0XG9H-mutyIgcBGSVHwunzcXyZbYkcOZJhR76KVqn66IAO5oHFmgC0RPvagW1jdaIg06sU9Ae0RPvaHm7Q7Eog06qEPbM0zivvRcakVKud4C2MWrdbV4sKSNnC70wv8ASR0bsZseSm4uhVKDkEsdZKll7xYUDJAJIVGgCrr1cDuhSqbpwVqwTJQbU0W_LlPqSiK6jKblpTU8NwZXpX4bdaCdAp_zqOii3MEPzlc6oyoxBdLzHVf9cLh5R3tZIJKwBLiDqmPoJoUwOdwQBX7j63Vi1S2AZaO5O1R0lGVZ5Hv-H-KBahi_4rUS1Hs5PWVDeHGsxgM32JZXM3-SxuqLHdsHjkm7ILIkKIh5Ggcq-e8opMZR213OkcdYVxEkqSVzZN6Gf-C05kMVxN1h79zzeWDlbS3-R4l_kcEBEljRxr_QprhOzfNaQMcULbP9avPYwzCSjT4E_HS33AYjxfi2zxE20xy3pPmodHA_DZseCD24DRpFDVeoQcAYnDJ5LpNklJT4Yr_V1PpyoLIgNIgaVfs34wXkKDvQUHWzd01XjCs20R_Et20_YtdiYE8oQH76JeY9DAnI0he-0Yo0aqsOYe5ru1DtALa6duXT5BRDNT7bSRYWE2THvxFvp_fE9Wva5jYN_GG08OOHALfYPJdKGuYuhuKAp40w01~2?etext=2202.MshNbghhli3mhcmzWAbFhifyoeAipeSQsAUGrqNXliSwiKyrVDNao2HAGiYPlMfea2F6Zmtpa2JmbGV2b3V5Yw.9d4923fbfd0dda3043b4f6f51086cdb717946e77&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=заказать+песок&amp;baobab_event_id=lqb89gdezl</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>заказать песок</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://wink.ru/movies/barboskiny-remont-year-2011</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>барбоскины ремонт</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://gidronasos-servis.ru/gidromotor/</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>ремонт гидромоторов</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://henderson.ru/catalog/ties/page/2/</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>где купить галстук</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://synonyms.su/r/remont</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>ремонт синонимы</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.1tv.ru/news/2023-12-17/467194-v_tsentralnoy_rossii_prodolzhitsya_snegopad_i_nachnetsya_ottepel</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>где снег</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://мопеды.рф/catalog/pitbikes/</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>где купить питбайк</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://lavashura.ru/menu/supy/sup-borshch/</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>борщ заказать</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.yell.ru/moscow/top/remont-magnitofonov/</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ремонт магнитофонов</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WluejI_zOoVX2Lc-0uKN01EfcoOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzmHDgn5LgIV96kGK0rhTMY8-hE4D689wMSAjPyZX6W85Sq8iYef5HaHMP5-g4b9KZn7LUW7oQgKj3GKbCCPpMrxcjltVUV0xsaKdqgTJbiwpQ4sD8hdg0h9AA5KP5KgCdBc86mK8A3FkyVEbKQmAfaW8IHZQIXf2Rm3fcnMu8j2u4W8Ihz1xPQieJ7eE7gzI4SUObxYehpfR6L8hZ55Al52rEP9U1IWpPDC5Q3DaqWLeCsJH1MWpPFiA42RWrqLeCt1h0hGtZdFBSsbp-a40jXoCAkShmb73gg8Elw2SheKi37v-X1UIdFfLFgigKCreBSKYkTtDEgSEgDIvpGwhQVu5CUdpYd-V4wVJgbD0GxME-dQSc88HeNhwSRhnugGcNpD7C5_Dpi41yZDcBDoFjymYJ0oPK_BoinALgjXRvh9AT5gsD9JDUKFJfwwQiGvkgxhDVg6EIEHtpCzIHSDzuWUz0FcGa0b1xCAO9l1MmH3sCGJBIqjBIqjwfpS3oftPJO-2ziONNTIs1OMYOiXOu3ITJ2JhZl1V6VyO809Byi6DPYkKgbSWfLAPVC9TOJ5kX4si67HrFDaNnRW83zCdprYVN01NeJyxuOeND-x8GhNv-BC0VxTxxYZyhKUbANzh0TbQKmpayaWiynaCiWSmnIvSYMIRgJfSLCkocmA3Vvss4TwPu9zsMzXux8ysNTD6RlpOzg32m3amVJdlosOpdT_JEUxHQ_DKJMUVFHPxtN_1MeiQou8MHxW4StCbKgbqgfdlTWnEWPcdVB797coGtIKWKGh_Ap51umnaSxC-Y6k0rVA2nyNqERFphTPc7IrOoKl6-NaIxX288A27tGnwXq23mfEGn7FnLx4nfnnRLpEn7DOJB46f3_vHOpa5ok_IzsJ7vGbxq3IZnaG6SzyWPuNNMZNyh3WXoroc2t9Rv7oGkN7sDUf8Oi8-vU2mies9Tu3~2?etext=2202.KEIT9RRx16BIhZz1FZTIVoLsZDmQJjj17X8tG0Kk2AO1rOazdQuJrrnCfzLKZ-vLZmlsb2N5cXhvZWJrZXR6cw.3be4c6d800d08f08bc599db72a97a246aaefb031&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+гироскутера&amp;baobab_event_id=lqb832wn46</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>ремонт гироскутера</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://market-delivery.yandex.ru/r/dostaevskij_1666354529</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>достоевский заказать</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://m.avito.ru/moskva/uslugi?q=автосервис%20ремонт%20ГАЗЕЛЕЙ</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ремонт газ</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.yell.ru/moscow/top/remont-zazhigalok/</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ремонт зажигалок</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://bygame.ru/otvety/brain-test-uroven-323</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>где кролик</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://market.yandex.ru/search?text=купить%20краба%20камчатского%20в%20москве%20цена&amp;wprid=1702922958465795-8651417798142061209-balancer-l7leveler-kubr-yp-sas-159-BAL-9775&amp;utm_source_service=web&amp;clid=703&amp;src_pof=703&amp;icookie=24BGZOjc%2FXy6PYfs9zkH0thdIe3aTc%2FaA3LnX8IS5EexXbh5rveAXlMgR5fH2zAZYAxLHeR29DM9OxKU56Q0R8%2BEx5k%3D&amp;baobab_event_id=lqb8d34cf8</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>где купить краба</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/byttehnika/remont-bytovoi-tehniki/remont-duhovogo-shkafa/viezd/</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>ремонт духовок</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://market.yandex.ru/catalog--domofony/18061184/list?wprid=1702923166459010-16146130786237593796-balancer-l7leveler-kubr-yp-sas-140-BAL-905&amp;utm_source_service=web&amp;clid=703&amp;src_pof=703&amp;icookie=24BGZOjc%2FXy6PYfs9zkH0thdIe3aTc%2FaA3LnX8IS5EexXbh5rveAXlMgR5fH2zAZYAxLHeR29DM9OxKU56Q0R8%2BEx5k%3D&amp;baobab_event_id=lqb8hiyqvu</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>заказать домофон</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://fsfera.ru/presentation/</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>изготовление слайдов</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WduejI_zOoVX2LdK0eKJ0FDYWYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzpfdK-VkDDfymGfMP5ovBOKV-8sVaDj7cgE6_g4IgFJvmtbaP7ZoSCZGWuUeXpG77VQKEXzvpXFLMZ6KGwU6KS8q4WICZewu0S19AgrgBvnm0y25KpmOyCeACc8w80V19QGHbIDPXWHtQWQ8HqTa4HLeYBHaDe1KpOhy77L7hue_OOR4xGLy0A3ZkETyzpINFgSJY20BGUpolaIMG7w-12cfVXJ2iMdKASTlPzH79_QKnl7dRPTsrAfCx-ZKkdpENqwfRO5E5Z_TdR40hL6PSdVZTVli68xmXI43Xnri-lWVuL6KZXJhjPilCko9zayPINIp4fMgs5lciafqMhOqbCrPN-UCnBvFTEJTD5mZ-X1Fs0k15HoCAi0jhG-HPsJ-q7bhip6r-G1Hs4h-CMD8JTrB1wJZXMRyKElugatt83fAfNA9LYfL3QVK4TOh1jX0niMJJrFzkKWZ_p3T9a7-ODzr1Kc_rk2o_Yz9RYCdnl1dj_VcM0-nb_hisn__ApFilt1D3ErOsQPgHqpn_uBXJikCPKDRNTYUcUo-RAlUy84wCdUpWhFouzf3pP0K4gLelyYZGqMwV9RMjTrnx718brUwzkoFeWqyLdlTO_zwcGaFS1Xy17Dp9LAfTAgHt6mOtGCIq3bLspRbcal5tm28VmPM6S-S3uYsJKSPQp6l2wsvmHk52vNW5W6HJjA4xFX3zXplnrZ52br4_RF4BAC4Z_P1TlzqTG4h5SWyZKy3aBqs1_dT20zA6ecrSPiWkkGruiD-071-0objf15XLnOsOO7Q000~2?etext=2202.fhkCUAQlyWpkJkfU7D8oyTO7ux_TgMTmd_sw0xJdOU6v__tVmyTi4mRZvwfvVPV0pDsVXeag633UefMZL_J_sW9odmVubnB2ZGt6a2Nkd28.b714c076f7132e9866d8b45a2297086d1880509f&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+дымоходов&amp;baobab_event_id=lqb8991u8p</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>изготовление дымоходов</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://2gis.ru/moscow/search/Ремонт%20автобусов/rubricId/110364</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ремонт автобусов</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WlCejI_zOoVX2LbO0oqN0FFfdYOQbKgbKga4mNI2JLVkD84-dykTFTllt7d3dQ_VyNh37IxFYWboyBoO80TFZ1Kvf5FdD7fBfJTkyqJGa-D-Gg5sZall9yuJWGKvSFm9lVDfxeJoHF103jk6JfssdVD4S2B7yyGKX1C521uAMk0lN13zo50oKbgY_WmDKN-6XgW_GKH8FzKYweoVweqV8wIZPzIMEg5L8H99LICZ6IIMa4PGQLYLZgZM4JPisF3R0LCsA_1HrS3ReFGRSE34oI5Yq77qEcFV1kPXdkFBmtlKsHfjdyg8W3cE4Ktu87C5DA4B27ji0Tmy2Oy2j7cIgGAqUHAf0hHvagW2j7cI7GLeSx2h0hGvc5K1sZldkQMvz3cTG01R3cQLypNHnMg2eKu3H4uNHXgKZWzXvWUlzy2DHftHcaMFJuqxxPewLEE9Ew7FwHt5er2eZTivFhtj6Zgrer3d7OK-dzEdKsfVW8CDeSCSreC7tj_unll1reEn9ytvVCCqGdldPcObQoQdv4k_swiHqrbTrslq3ND68hzdUf8k6kuHFUW7p8M0IWvc5S0MWxS8TKxk1vMxCXjV0eDTA6mz1HrcGZc33smCkQbZmKnQhDEC7nEyvNYm0GTCLwbKBi5AfRBvX3h2Ojq86zYmQEfviYzD5U4Fh-0o_E01fWJ-xm1Xt-yT8EpxkJfQoBylRU6-DkaAycUJhY2PPgOMoompjLZccBdqnYntHIV2gPqo9thVASFIMno-xC5qAYTFzcU3KrH-J7im2CWdAMF_fL7LDLjvBgthkfMghjdAxqt5IIPAki2L1xtM0xcIfIxCPpqpLogLIgk-uuGTesDWPg3ySlgA9Ya4a7918Vnb1uWGI-3IGV_LKY-aPFIObPEmhJRg37FhAxA030Eq3G-hw8vrvbtXQiurZEbDNpIblig776ZrvmLqj30BPqCKmUE5ID73Nyuz0Uf15KWdk6ZrlLXSnmWsBNBHfqLbJC9AMR5O0m00~2?etext=2202.rgOXElmcRdFKWLT0eqPv88erJRkiAWWR3GTP1VXH-2Nfc9JcNohCishPvS8rgetMbmZ5d2luZWVpZWx5Znhsbg.65fa9616ba7779bbe5593b9e74ac88c4908e71ce&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=сиропы+заказать&amp;baobab_event_id=lqb84m8pvs</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>сиропы заказать</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://www.lamoda.ru/c/5345/accs_ns-koliezhen/</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>где купить ожерелье</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://stroyday.ru/stroitelstvo-doma/pechi-i-sistemy-otopleniya/izgotovlenie-shlakoblokov-svoimi-rukami.html</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>изготовление блоков</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>18.12.2023</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/a/Xr5M-WSiDQEipYh7</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>изготовление отмостки</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://rusarm-pro.ru/bron</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>бронежилет купить</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://russia-zeekr.ru/</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>zeekr купить</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://stynergy.ru/stenovoj-proflist</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>профнастил купить</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WaqejI_zOoVX2LcZ0lqH01EWU2OQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZlSQ1GgZJvlwGszdL5x-hIXpsXqUaznQOxZqQdq6RsTJhjgL8EAmqYf1hL6ijQm3j6eGxWnP0K2KpPd3hCBmAKf_GQg8nDcx33eE4wzUXIWdNfH5Q2TUl4eG3lrcYf0-yHvSAaKUayd4C0cRNJA-Pfe0YL4Tu07EdAwCB2S3Z-4cKudr7RcqAdjb49nA2wzRwapTpxjUWg5Jd5y2iMZjeqxfRO5E5WGLtPu4GFiusvll3cMw4XB9AA4gSVDdaM0d0kGz7o-ORBnBij6_0ZIf3m-Y_EXrR0tp-9yQ3LiDymPYVoUwKcwQBX7zA0VC1S2AbCl7W5iCUn5g7DoFwZSbTducZpWA6oREXRCfEjYCM8AK31a3J3YhyDy8w5C73iz6wXWkagbSWbMAfND9zGH5kj6sC26HLFFatqz4n4VFxpyClNZWmVGbVpl1iccxzqWsVIvE8RYloD5QVdQ3yB2F_j1M9Xffe5iOPPf85jYblk4kxGhZXoGA9RHkurk-4Xl2_1b3mQkCtkoF-FkmFDZseD1NBdxS_HVf2DIUeD-I-kwxdX4Ic_GQpqGhhmdXpGpLogLIgiLs8eTesDOXYd_X6VG11gCgmm46_mC0w1F-6llF3Mv9Vtc29BcC_y20LUcnhHe3XBPP5DGfBxmohgHeOJumoyHdHntlVcuPlTnADBeiJJYyv_RXezG8NSl2XiGU3uRkjkdHObqiNjAOUKm4ky1~2?etext=2202.on5akR5LZCa4_v4J-Ujo40yXEun279Ap_O97VvSXISl4cnNxamtub3BmdXJtZ256.6cbd532c79c303899f55eb706139200afbc0b1ce&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=розы+купить&amp;baobab_event_id=lquyy0cfyt</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>розы купить</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://centr-teh.ru/category-ekskavatory</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>купить экскаватор</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://www.xvideos.com/lang/russian?best=</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>как ебутся</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://gazonov.com/item/691-raundap-ehkstra</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>раундап купить</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://smotrim.ru/article/3485685</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>как поднять</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://minecraft.tools/ru/crafting.php</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>как скрафтить</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://www.winelab.ru/catalog/krepkiy-alkogol</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>алкоголь заказать</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://shop.ritual.ru/catalog/groby/</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>гроб заказать</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WZCejI_zOoVX2LaW0YqH02DVTIOQbKgbKga4mPI2gbJkD84-dykTFTllt7d3dQ_VyNh37IuEAWqg3cfH2I8agr9r1WuZfBh8MYMHP0qYiOGqGeZ631nBI5MZ8o4QCvAMXevKx80fcpE7Eh1TYag_mKOJ73jG33gEKwyU1MYdNbG5QATUF0hGJhsc2j0-SHvSAeNUqma4i4aRdNA-9WvHMCbQP0BAwHPnjzyFOVgPtr9RUkStz9dZ-HCAbKRn9owLriwdyyPlAOv7RHjtIkqASB0Whkpm8WROnztUU1VBRZWV6GXCoL9eursMZJ3IrSHeFelpeTMmDy_YV6WrREcfch9dojvvgH7JkgxlUes-OSv8vFTCJz95mpsY1_s0kH1GcNhn262BWQq8TKxk1vMxCXjVamSSXUqULGovgMF1J3fMB1BgVOIVDjY0wIgLoYLOgLGsdr17MAmROGCR5aqzJ_RrHQvK_V2FhFlwO2KXUl_ReyJ8z_OeCVAv54Hn-ljIp-tnQsairDVFqbYeBwQPVeh2BDDFKOnCAIiCm-gYT-_rPIyM92_GatsHlgYn7zCUR82MS9S-_qqYp7BZyrjQrtKjX5bkV5xhtyYuJ04UqSnSgLGghLRWGZj6nx3CKNwfkpKpIQuUDm4O_9XMLSxeEmurk74jYnaq_I0NxOjW-oq_m45QD-9qu4EC-XIlyMPOq1Ful_E_LlHVxnnCS51KUO79AWO3O8HzIfgQvb8S8LnOkMVDUm00~2?etext=2202.RnrqdxEyT7vPStj7acWNtXRjAraF1nOC7gHIR34Dylf3TTiT5Q6MigAXwgYwMbzIcXJlcXVzeGJjYXN5dm1jbA.06034b2c4c721851374f49803f2a83c84463d040&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=чизкейк+заказать&amp;baobab_event_id=lquyxrsvw1</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>чизкейк заказать</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-delat-glubokij-minet/</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>как сосут</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbSejI_zOoVX2LdM0aqI0CCVU2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6Ezof3mWdYkVjH84_JzIWaMH4LDz0iWxTC0AgQIG96HtTqHngsr9fZcGT4Z828h64D489g2Qo8jL8IaNM818aU8wKb6RGEtR0bCsPGouA2AWf_GOz2spV60mwZbuA3xL3y_UA6vtELeCKM0lOziJ9tnFdmQLIw3sTG02RjD4fvtkL4-Fw45vEyUZKbZwZKQcTJw5JA0wDJkqxp-keCtfFfxXK6hLjt2crAy31WhYomuiOO1ztU-FrS5RE81UPpkIwtEpF3QXOo15sFjymsNYNPIEOYhH5pft5-T1gs9jdSJwq6hPpHYA_PtgIBXhk4Jte1yo5WChKYqS0smhKERaVLExAR7mLzEokOiZDI6W5Gyez6_HWkagbSWbMAfND9zGH5kj6sC26HLFFatsRNn2uKV-hmgtAzwfmg_AvBy19_av7Adw_biQQJFjP6cioZMaUWObP7e69EMP2mMC3GZVIzDZ6QdACtbduil-wSvBqP2yMPcNbnnruyCuFx92n_sPGfoL8cj_IkgwFwxG4IVDQ7mKkimdnMUy52yaKP9R0lq6lUwunhfPW5CanxH7Dp9LAfT9gTMU07QDZM0OgFnKPM3eeaMdZ82JysmiPP8KxKZYL3UKrxBn_xcpdoUowoI2sCKaItkKM_0gz19EqQsZqpapykD11xG1dlq7g2mwiCzZDd7vuGOsHSOhNobqG_tsEx-U1p-Qw0BC-yj0OnTqNB263mZesTAwmqhhce000~2?etext=2202.JtfwijeI3qF8aErYxvC7PGR_8G8tQbrT0hFqC1yMNNzHj0y_at29DBQGWeuXAo5cLVgWMEloo0VzMiFVtPazoXd2aWtydmhqcnlyZ2pjc2E.c3cbcadd07afa7d2e9c99d1d95c50360ac48c55d&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+водонагревателя&amp;baobab_event_id=lquz4qwcqj</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>ремонт водонагревателя</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://flowerycity.ru/category/komnatnye-rasteniya/dekorativno-listvennye/kalateya/</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>калатея где купить</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://masterremontamsk.ru/uslugi/remont-ofisa/</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ремонт офиса</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://remontfloor.ru/catalog/linoleum/</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>где купить линолеум</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://gralit-stone.ru/</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>изготовление столешниц</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://track24.ru/service/rupost/</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>где почта</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/tag-page/ukryvnoj-material-dlya-gryadok-i-teplits-spanbond-124560/</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>где купить спанбонд</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://remont-benzogeneratora.ru/</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ремонт бензогенератора</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbmejI_zOoVX2LbP0dKI05CXVYOQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZjSwWrg3IEb9A6XEkWegARUI1eocb5JY-eY8IKaAerQg3PIChhMIjGPGTOZ4ahK6K7MevfwWrg4P4MoAXK9aLX26g5K98HqTCCeX2AhTGTCsPmvn79EXIZzXYiS7rBOOD1nzDzm5J4-Gon6HPsjDo84o-8s46ugSEhLem3jr8kg0EtKYqS1sgdNL07Q9yw3IwNGUpg103PferFEju95lx_xZjerYnwVEZfrvhSp6fNYEHGAlP-v7RLhF8fBRQSp6etQDkwKsXRWO45SsU553B2Fkxtn2j2cPR8BBsi8ryq-Gma95GWoEKtgecoyop85u08RfTITnVdGQjYRPt4-j1gsSqOYlsTwaYuQxX4zw0VCXO3Ar8j70Di2lgXpSZ-et9NP-9eyu2Xi_w2UNmovgMCrm8YRRJ3VI2ZEuWQnuGgcgrGgbs2bKjbyGXrXiMw43MnODFKysTU6mkM7lH4aSH-COk_mVwVQhk-TQhi-5qLUax_JF0pBN-l9JzX-rfEVi37DlZ48i-mRWp37k_Qxoy1TWT5xZUILINfBcttPOoaUxfxiWpm94_DZseDrr810dlal3BWsjpkuDhSxh_L1h0GY9g6PkLAfL5gjYhJPCJg6fGRAtwKC0hKcGD9i0XdyQG2WRUdoFgbOHZfWFBrJccZZ47BulrFTCnjeYKiy6Wt8TtQThUZGUTpVC7hg2uBxpkJ9XtbecxqNB29pVcyi54_LekTHVNsfB7QC4LPkmmGQ~2?etext=2202.R7RZ_ywGHOKpAZ_q8ME0-SplbVjLNu2qVbBvXG0WdppLlfjD4TbVngpGFztJ355hbHpoc2FhZm50YWd4bnBqdg.bd334df74f38e94a5eb02193e732a64cd3049a99&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=заказать+постер&amp;baobab_event_id=lquz2jfwjm</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>заказать постер</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://krepair.ru/uslugi/remont-bytovoy-tekhniki/remont-fenov-i-fenov-shchetok/</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ремонт фена</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://zvuch.com/tracks/набат-где-скажи-все-друзья</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>где скажи</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://rembober.ru/uslugi/stabilizatory-bespereboyniki-ups/remont-pauer-bankov/</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ремонт повербанка</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://promo-fox.ru/promoutery.html</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>заказать промоутеров</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>https://pechenyi.com/video.html</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>видео ремонт</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbaejI_zOoVX2Laz0bqI06EYWIOQbKgbKga4mGI1FQVSQG9zFfSxUxRVkVE6Er-_u_M6ErmIH4P5HZEIbeIEg3Jgf5f9w4f5ab5JQGWb9L67QDHK8MeD8nf8HaKr5MXfHj8IqeWQHaX2D6hgZ0bsm9JDcKCe1B0yb7u35PSD2JXWq77qQsKeZdJahIoRpjPxfxH29dySJYgPUlKeG3lreYf0E_NYKO1swZLLWFQ9y-1IAVIUJY20JThebFCryVYb6m3B25fEbqROhNixfxXjE_Fx-PpUqETK-iplAUwSrhbK6isZ-1EFsZRkbDeLu611NDdXHGomZxkzyKQ1uSBkYPJp-OQ911wJCHJ5ipWVMWrxyopEXrR3bfwgATl0LM5I8wQpkgxNw1lcZ4H-p_GaNJJS8thG3vWB0PMf5uy0jXZs8jGvkHzKxifiV0aCTg6mXU85nv2REXRCfCKwHUAIjhN71YgOhbAfN8ALIcNp2NM4nReHDh1XqTJpP5yU8d0_xATOkVhW2F3U_bTdoTRtwYpP-jm42g7-JdzvQNsjdvh2yhD-QWeBq-p5nfXbBpRclrbZMW7U37Lw7y6NVRTGyUl9NkvAr9WVqnvi01nSbyf_ZzJsjq7FfNLTRrJRtmRz3kC3oqwaS9zqz5hldVjptFgizxfd6_B4veW54WhsY6RcIgLIQRK2X-qO7SEoXFAxeA2yCe2106O25VmUsQM0sDOopHKHdj-xb-aBtknPzomrmZnaElGu6e2SXpnwqe_w_75sGUPmnnCSun9VuEtZS52LMrGM2ojbyLG8~2?etext=2202.wXm1AbCkCD8MTb4Jw1WuarC6bSa4phvY8p9dSOdmuPa_SpjTXdyUMZGzjD2dt-FOZ3hiZHFmcXpmdmNkdHRydg.513005451cfde29e8003c1d67bfc76dbdb3a0cbf&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=где+купить+шубу&amp;baobab_event_id=lquyxi5ym4</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>где купить шубу</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://www.otzyvru.com/kompaniya-petrovich</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>петрович ремонт</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://design-kvartiry.ru/армянский-ремонт-квартир-фото/</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>армянский ремонт</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://service-kamaz.ru/</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ремонт камаза</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://www.officemag.ru/?C=N;O=A</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>канцелярия заказать</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://hoff.ru/catalog/vannaya/santehnika/vanni_i_komplektuiushie/vanny/</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ванная где купить</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://podorojnik.ru/gruzovoe-taxi/</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>заказать грузотакси</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://moscow.petrovich.ru/catalog/10042/</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>где купить плитку</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WX4ejI_zOoVX2Laz0XqG00ESQYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErohK95rY0Z9w6fKMusAacXOXuw8Z6ZKe1R5s05JDcSEkvvKiL4g3mEG0qS2E0OTHnXJZe2ZbDiKyNIs88ZjmaMwrBm8Jhrw5A2TUb4Le9rwyIX0E_MQAa3xn7bmgHHwJoSGm2PjTChvNl4ChJw4bz8d_hIZpoTkG-_e_RIXDkwqfxTTI_EeqyQXpZngsxXJQbU0WmLnPOSNCS0-xXR4bPi57upEvnic6--oJ84ekIDoMsTnFhGQzkPPd0-jXksSaSZlcPwaYuPxH0_w0NCXe3BruX70DkUBEYVtWyfTcOslmfIN9p7aPYGKXYFWr640OBfAfN89LYgLpIVK4HRhHjZ0XaLJpvDzPPvqDVdX4KnHPn-yDAAL-ry_DfVbU_tON9RFzKWE0Vy-m_Zb-jfFbMZ-sK-LQ6QQLpHXbbSq-L6aYejkfEan1oqkRFGEvCiUQyfBM_Qb1U_rKFHV6LsHMCHTaLZ4Nkl5q8oOc_WiT8XS8w8Wc0urPgvKAfLMgxiKTeoEOLb2-TEEcYApDzaM0HtyusDcMR-ZNUa2GEoW8whgM4K05ivP0_m5jVKxhCgpDCuiZ7WWhGfrYftCNR3h-1oZw85NpdKOvfwRLxnuNmnk-Rt3X17isnDhn6kLvA92ZR0IjXhM~2?etext=2202.WHOFNKGS7vY3k7FsD0UBN-QrUirWR2Vn9pzd96GA1vYYjwUUr1j4v9TcKfM4TehYhD466yHOkvTFLRdzvuRyG252dnJ0cWxneG11ampieGc.acdbf3440e41b1317f1bfb863dbbeed9bfd257c6&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+навигации&amp;baobab_event_id=lquz5fbj71</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>изготовление навигации</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://3dgu.ru/service/3d-pechat-statuetok/eskiz/</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>изготовление статуэток</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WVyejI_zOoVX2Ldk0OqF05FSQYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErmIIqWZYEeHwgCHDcpO4607JDcSESJBO00lfT_0mucLPnG67KSlrrIU2k8O9ILAP-j1sOUElS0WHduySHvSAeNUqma4i4aRdNA-5_ZCOn_2IrnwG-re3htnv_HvtzCdVa_p_6dRzPtdTZwLHd6fRUDEgMq13XR4bHrUn03xkDiRRuuWQ5I-V57YG-zcbnpoag1OXK2U4J8RxxBivkqSjM7hwwHumMTnFixYVD2whkzwZRvXpaZazqnFqaN3FQ87_O2v452PUl48O5k1EYVtWyfTcOrFnl2n6qDkYaL27wru-GqyOBfAfN89LYgLpIVK4HRhHjZ0XaLJpvDzYHZ1FxpqQi4VxB6ipl-RGHZZzsOGnlYvGbmK_yxCWtBujJGKhwgVfQ5uLJ7D7iWLPja3kS8S8pboxa4tqlHuWv7o7xtxG5_UWBSuvyaVj1hv_9Zsu0zUt_EV_vuOukKBqczfNTUD3F7oPVRQ2PZs3B5yjgZAf94hPLXwa9cvKgbKMgtm1kqO7GFDgFnG1i0emx3281GN_DC13SCHnenQ51CXOAZUEdccDbfZHho_6EpyQuVVFtuFLtoURslkbbYVbO5vryBq8YsFsST5C0AueWffOMK3aa41~2?etext=2202.NV12AtmRE6Jnh33cde7qNKyps5_jEmrxgAnSGcjCbeEsWpkF8CvGE_McQ1EP1Mu2jyL7_1A9-iVeWP2-9GlorG9nd2VkZGJraHlkeWFlbnA.d4fde0066e88d3b713b7548dd6c985109ced5245&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+павильонов&amp;baobab_event_id=lquzjls1kj</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>изготовление павильонов</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://shtory-shtoro.ru/</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>изготовление штор</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://fineartbox.ru/</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>изготовление упаковок</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://print.mrpixel.ru/bejdzhi</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>изготовление бейджа</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://leonardo.ru/mclasses/2283/master-klass-menazhnica-iz-spilov-dereva/</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>изготовление менажниц</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://www.foto-plitka.ru/</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>изготовление фотоплитки</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://studfile.net/preview/6761345/page:26/</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>изготовление таблеток</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://wildberriesstore.ru/</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>валберис купить</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://www.rolf.ru/</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>купить автомобиль</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://www.detmir.ru/catalog/index/name/lego/</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>купить лего</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://sberauto.com/cars/bmw</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>купить бмв</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://fydi.ru/ty-gde-prikolnye-kartinki-50-foto/</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>ты где</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://m.re-store.ru/apple-ipad/?page=2</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>ipad купить</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WZWejI_zOoVX2Lbv0bKH0ECUSoOQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZjS6vhRpsW-XK9lN1fzGkqfz3dDdtVKQK-TJYS-dKBngTG8wQWsAXh1gbIs0wPipXnYCM9YXD9lKAE1GP4Q67GSfruz2j1ElQWAq4wzU1IWdNfD5Q1zuZouL0gzfnC8O9CsEkLyJHXEbY1XGnA3dAwG3YpLXx3_uFNSGW_SNEhCSQTTKuTgt3aKAiMd-MtZqQSpwhHlkxQXpwZqZaxjtBPnfzI-00VhpSX_tRd4S94VDzuFFTosQE8ZMA9kzYtUIfON7Sxd6oORxxBiEVKMcBOzY_EXrR0tp-9yQ3LiDymPYVoUwKcwQBX7zA0VC1S2AbCl7W5iCUn5g7DoFwZSbTducZpWA6nfyg1V3BcfOy5Ckju6yusCWcqpUB913QQhL2gNOALIsNn27M6nReGDR5WqzJpP5mEM7J_iStRsmHE0AFvl4pl-tYPs_BamNOf_t-4Q-TeDJjH-TeCJDQRPAtd2BDDDIIOuUMs1_29mOFI-TF9b__Pdtl9a__Pdzl9ZseCDe2e3mkU_IbtwtvlVqhgkFtRfVszUwy-St7wqMQsGjDanEeRb3UMlEr5Uixs0020S_4lZ3QV7CZGqOax3h1GoDfd-z9uX2p7sST6WAKnVAOCO78OIFlmeOgxXEFj9imSezo0HL9nMvNcYnilvNzM3D13AywjTRCu7J8mpT6LA5XLhiGDLT3MElwy1~2?etext=2202.RcdbIoQWHWbDuFvIUll457sBj79ABtUfKAbSE1eMcnwsRnWpACGvpFZQ0-Pntm_kcXZpZXRpdHNnYWtsYm1wdw.6516df72eca8b48f020c47473cfa5b038c5a455e&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=фотоаппарат+купить&amp;baobab_event_id=lquzz93ivp</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>фотоаппарат купить</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://www.avtogermes.ru/sale/lada/largus_uni/</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>купить ларгус</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.feniksklub.ru/tank-t-90_1/</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>танк купить</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://sunwheel.ru/catalog/monokolesa/</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>моноколесо купить</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://www.linzi.ru/</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>купить линзы</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://moscow.petrovich.ru/catalog/1528/</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>металлочерепица купить</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://jazzmoto.ru/catalog/mototekhnika/mototsikly/enduro/</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>эндуро купить</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://gamlet6.shop/catalog/khamon/</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>хамон купить</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://universalmotors.ru/motorcycles/tricycle/</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>трицикл купить</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://pishugramotno.ru/punktuacia/kak-govoritsya-zapyatye-nuzhny-ili-net</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>как говорится</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.muztorg.ru/category/elektrogitary</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>купить электрогитару</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://www.whitegoods.ru/catalog/frityurnitsy/</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>фритюрница купить</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://teh-center-benzopil.ru/</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>ремонт бензопил</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://www.gazeta.ru/culture/2019/08/15/a_12580249.shtml</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>как погиб</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.kuvalda.ru/catalog/11110/</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>где купить батарейки</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://vsesdal.ru/referaty</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>реферат заказать</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://www.driver-helper.ru/kamery-gibdd/moskva</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>где камеры</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://supertroika.ru/</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>проездной где купить</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/strujnyj-orgazm/</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>как сквиртить</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://m.prostitytki-mos.com/po-vyzovy</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>проститутка заказать</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/182136/</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>как робот</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://rvdmarket.ru/uslugi/izgotovlenie-rvd</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>рвд изготовление</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://ru.hinative.com/questions/9700673</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>как поживает</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://fb.ru/article/505769/2023-kak-zabrat-svoyu-posyilku-s-pochtyi-rossii-prostyie-sposobyi</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>как забрать</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://kartaslov.ru/значение-слова/обозначать</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>как обозначает</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://blog.skillfactory.ru/kak-zaschitit-sayt/</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>как защитить</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://travelask.ru/questions/556240-gde-nahoditsya-tiraspol</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>тирасполь где</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://vodaizkolodca.ru/remont-kolodtsev/</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>ремонт колодцев</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://news.rambler.ru/person/yakubovich-leonid/</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>где якубович</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://otzovik.com/reviews/kompaniya_geometriya_remonta_russia_moscow/</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>геометрия ремонта</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://youdo.com/kurery/courier-services/crr/nedorogo</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>курьер заказать</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://www.onlinetrade.ru/catalogue/videokarty-c338/graphic_processor--nvidia_geforce_rtx_3070.html</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>где купить 3070</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://www.labirint.ru/genres/1593/</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>где купить дневник</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://agroteks.gexa.ru/produkciya.html</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>где купить агротекс</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://britvamsk.ru/product-category/t-lezviya/lezviya-pachkami/</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>где купить лезвия</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://zub-x.ru/products-category/izgotovlenie-valov-i-osey/</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>изготовление валов</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://pizzasushiwok.ru/page/ostrye-kurinye-krylyshki-dostavka/</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>заказать крылышки</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://s2bmsk.ru/catalog/elektronnye_sigarety_odnorazovye/odnorazovaya_elektronnaya_sigareta_ashka_2/</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>где купить ашку</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.sravni.ru/debetovye-karty/bank/sberbank-rossii/</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>сберкарта заказать</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://penetron.ru/sushchestvuyushchie-konstruktsii/transport-infrastruktura/remont-mostovih-soorugeniy</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>ремонт моста</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/Wj4ejI_zOoVX2LcA0nqM0ACbZIOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErndJueJKnJGvxCd1s6dW3fjwMr3Vwf2GIESFrMX81b18sxx-LCLGXhnF345uKG1OiI8Ev_UJjk6uixdJrNeQCHKcaFp9rHgupzL8HaZSkWDnUySEir_ga9K6qP4FqeZM9MKYeo8h2sGX9IGg3Ler4f5HaHM919BI2EKYeo8h4ZMiHqmPNFc40i43-nAlq7gEaHm28EEeqTYfQif2uzp65Xdwy5ao2QjlGuxzSHvSAaKUayd4C0cRNJA-LuWagGBVUBGcaMFJuqxxPewL0EtyIZkp6-dVKkVETHsvdODVJhlw9tdTcxRk5DgNu23zMRal-vSOhZ8Znkl5Ag7uY9MJuT-i_yuW0BD3vSEMJP46--oRCVnIzwZrLcS3ws6lNaMvqEhOJjd9F9xfYVfek4UqOD-m5m8g4ozU0ImhO0XR69I2Ct7Y1uZTKxk1vMxCXiVKup2rbFGOIQKfTmOCWQeoEX-5W9rWnHCLwbKBi5AfRBvX3h2Ojq86zYmQEfviY-CrHRl3-DG1N9zS0KiM5d-b-OkNlbUchjuvNDfnAwklp_xh1H-xOIgFh6VdL3L9yOq8n24MKOWo8GiVQUZ6sbwxEMwpFtjRVqr3TBW8Z6zC_L5UilCycKFHTGIFTa3bgm_FwOz-0CFHZX6__KfFCDs-Isjw_fTuHcsosjP_5ZiOZcYcRbIgLHQhP2SsJ4w1cQKyZD3QDeXEOXm3J3y0a_YY2a6R3a54kd82Fr3GVqscJrowBF6zdbC2R2C2xaJqeZGcv_6mxC1cR1Ti7fdbshuBZTWkAFmnNuI9PMNrqMAqa8_4Jd7xnYAQt92dlc4zyeSHVwGseYrYOFhnuvVvkJSVKoDLqiqFG6RGNzBCDhPd8lIPc4I3RQ2W18XE3HS54Ug4LOoQZWT~2?etext=2202.6boAziBYyIdJT3gJQX69cetatvxLAivF4p8YKNSR00IWEbFc-AVfbW_Ks1Tvf1XbbXRncHpianB2aHpwb3JhYw.91cad75f1b0b6c60f378a0252c5c8e8f4e7c6db2&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=чистовой+ремонт&amp;baobab_event_id=lquzz1dsz5</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>чистовой ремонт</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://www.dns-shop.ru/brand/xiaomi/</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>где купить xiaomi</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://www.imperiasumok.ru/catalog/aksessuary/koshelki/</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>где купить кошелек</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WWuejI_zOoVX2Lb30WKG09FSQIOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzodK_gSHdCer6a_exdqTjf3HZIIa9IAh45WokRC8IDRNQNq6m1WP2ELWa77yOdpu58fz9vE881DskYKyoq2t0vEey-yPj7ZK-DEkwOErNZUqpkAvyzScj_JFFgqer2xVZxjw0tDfNPksxXJQb-0W_LcvB_kN6Auo8yRhnTySgkow0R4xEbcxpPndnJ2r4vDXpRUPPcjBOUbR1VFudneDUpDipWVMWrRUggcxCyRven4Vi_q95qqt2Dwq0-O2m6LgHUF0BOLg7DoFwZSbTducZpWA6mz1HrcGja251Md679Jn-8nwLYdoAYN2or46m00qrKgbKkmKgbiFg6Ei5WtmWOsB9fwdkoBOuV-mqkobTa7ymYP-byfaAplbGB9-boVCAQ_-obWab_hdm1f-rd_14WRq-oJxCooJx8tcIpvSWM7Hr-MtW_mPP_cjYFFa_tTMH0yFwOzs019BQT6_rNINe4g-osjw_gZzWfKsMlzssJKb16QcIkLIgNL2WcO7QDZM9vGVYtPsayG31sM0HhykC839BUUdNGc2bB0p2x8uYcJs70nIwje31YChLPyvG_Hg8WBABoONXkf-kBxszFV0K4_ZxseElyX4almmfNmeXmVS0tDqCjoB4grYzqf4bPM8QaG~2?etext=2202.hP-pVDic87dGQOE4BqBM5MpAJR1ijotgCIKsTeUPQ9BmbnN1ZXF1cXFrZXZubm9u.4d390b5aab682721dea4ebd1a00d5ce225ef29f0&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+стекл&amp;baobab_event_id=lquzytdain</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>ремонт стекл</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://помощьзависимым.рф/ekstazi/</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>где купить экстази</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://www.detmir.ru/catalog/index/name/komfety/</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>где купить конфеты</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://apteka-april.ru/product/66683-shalfej_listya_pachka_50g</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>где купить шалфей</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/sol-pishevaya/set-morskaya-sol-pishevaya/</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>заказать сол</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://aptekasy.ru/farmakopejka/</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>фармакопейка заказать</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://www.mvideo.ru/ustroistva-dlya-umnogo-doma-7672/videodomofony-30568</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>где купить домофон</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://zdravcity.ru/c_molokootsosy/</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>заказать молокоотсос</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://arsenal-plys.ru/poroh.html</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>где купить порох</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://www.rlocman.ru/review/article.html?di=75528</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>изготовление микросхем</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://promagnit.ru/izgotovlenie-magnitov-v-moskve/</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>изготовление магнитиков</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://good-mebel.com/category/shkafy/</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>купить шкаф</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://www.mactak.ru/catalog/silovoe_oborudovanie/vozdushnye_kompressory/</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>компрессор купить</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://www.eapteka.ru/goods/id213149/</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>сиалис купить</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://www.sima-land.ru/gril/</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>электрогриль купить</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>http://36n6.ru/bioparoks/cena/msk/</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>биопарокс купить</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://pobedish.ru/main/suicide_methods/suitsid_bez_rozovyh_ochkov.htm</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>как умер</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbeejI_zOoVX2Lc40cKI06DXVYOQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZjSV8f7exbKEfNQqlm9VKvleoAX92CQHZMCYcgZ8Y4Wwz3I31pr2DGW92lGqesXkaPTm-Y8YAeq8waMgaEmAb5d15cFQgjGaNMeXf6IaGmSGYIMa4P8RQKY8QGZ4YHuZfIKPlYv7J1bSqPADAr5aT9l86A2Jg85WuxZXYM7LMoFRb6Aw6pz6LCLGZSjPuXzJvm7bqgXztG20MpIHgUSxmmTNeyFOUO7h_V0jMtdNRFeyQbjtFbqslSq6hMTqEbJQZ_lQMr7epZ-ZERtrBPnfzIk00UBuqMBrc_7u1KXDruKPcdpImUS8zmv6--op0DY52nbO6TnFhGQzkPPd0-jXYqzLLFsvpaZaTypFKaN3VU87lG3va90PUh58u1j1UgSt0ygTsKslYOFE0fRlIWcCUIcZiLZqh5OaT8w52FqR202qrKgbKkmKgbiFg6Ei5WtmWOsB9fwdkmRvRB_i1zdzmyUqTRslxKFBDzR-y3okT6j87_tRqUKVArV2sJwMRyMoCGqwy0noqXAc6Cl2SFjiPi5iF8nHk_UoPTly1J1FFd6InRCZplmu07UgB23_hl0Luo9fDz2iSWHOVHQlmCHSOcs21asREtH1zcWrOfl0pj6nx1qKlwj2GveCkM6WmyP_FZ21qpjhH6r_gq1ZnLewB1-2OVDicwz3dte_iCD45WShzBJtSaAuY5xBpTt7jhdk_tIs35WA9BWpMlPHUsHtmh3qCN8AqhPtl2w-WtQb000~2?etext=2202.Ky_N6ZjT_vdXzMtxSZlSJX4EVHbsi7xdjna6j0kFnQ9A4b2w2JXry-3UNzr4xpw2Z2xpamJocmpnb3BrZ3ZhZA.8741ca990ae9f802253a7245358658349c3d8d9c&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+печати&amp;baobab_event_id=lqv0p7y5z2</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>изготовление печати</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://journal.tinkoff.ru/remont-komnaty/</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>как отремонтировать</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://time100.ru/online</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>где часы</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://kartaslov.ru/значение-слова/как+под+копирку</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>как под</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://zdorovie-chita.com/info/pervye-priznaki-vetryanki-kak-nachinaetsya-vetryanaya-ospa-u-detej-i-kak-raspoznat-simptomy</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>как начинается</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://www.yaplakal.com/forum7/topic2321192.html</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>как выживать</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://life.ru/p/1576761</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>где снимали</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://optstroyshop.ru/ondulin/</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>где купить ондулин</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://www.nalog.gov.ru/rn77/news/activities_fts/10011520/</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>где инн</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://www.livemaster.ru/popular/85941-nardy-iz-dereva-ruchnoj-raboty</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>нарды заказать</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.rbc.ru/life/news/642af4239a794778a20491b0</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>отпуск как</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://veggie-woogie.ru/mow/catalog/tofu_syry/</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>где купить тофу</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://www.jacks.ru/product_8758.htm</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>манты заказать</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category?text=Качественный%20ремонт%20под%20ключ</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>качественный ремонт</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://eddu.pro/brand/gde-tort/</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>где торт</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://pizzasushiwok.ru/page/dostavka-edy-nochyu-moskva/</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>заказать покушать</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://www.vardex.ru/sistemy-nagrevaniya-tabaka/glo.html</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>где купить гло</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://www.cottedge.com/</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>ремонт коттеджей</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://hi-tech.mail.ru/card/5-lajfhakov-dlya-poiska-v-internete/</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>как нв</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://www.roblox.com/Download</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>где роблокс</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WdSejI_zOoVX2LdW0aqJ0FEWVIOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6Erpx1yawGydevoSgZJgZE5GgnN5g3Hf9HaGtbAmqg4S_5bXGWS_HaH5GVKF9IeDwL5jlr30giWu97HaX7GaD6HsHM48QWJzf156Fm9JD6IaRcivQAFq68bkiq75Xq74qadDZpFOWEqtHsJwRQ273IA3YkAPUFGhGJhse2j1ElNWKe9rwJHMWVU8yk5GAlQSJ262JDZhbV4taRJFWinA0c9mkZ1CnApVK-RIXTfr4JPhQKQWTlQVsBPqwxMVKhg7GQIwzxsYUspRkbDeMu61BQ9TWls9NGlPkl68eM129yNB0bvGn6--oREa5bIO5THRdGwjXRvx5-T1gsD9JDUKE1EcCr8Yzlkir-eOv8v7VCpr95mttY1xq0-P2G6NgnIE0hSTgjKMeSt8_gDoLsVYQFE0eR3q57MP2EKPCQnn3RaPAUxJs9cmW0jDLAfLBi5AfR3wXZh1ODy86DYoQUfxiwxcm-dwOUJWsv8Dpw2B_5mEKAD-B0KgKpwtH4VZt4WwNV6qF-UjdUyXVJFC5CMOv0hMceXOt7XZ2GxpqpfppPMOIkQqdNqZJ2_HZseDhhgIndVal0MbLS6D-cuF4Q-NDQprsR1-pyrbljTghm8xHCIp9oW_uD2M460Y10GWZ_84hXGS753-x3_-wqjXQES9T-88KFpLfTpUGs2ZxTVkpyTRqnUJE2O2y9dAV9PggM11bu6VXtS4UOnmWVyvmm-6Hic7xEP334OcM_ixC8rIHvgyqcyKc6aNmiIjoGS27eQ7EAzecyivQTVKR7Gu1~2?etext=2202.wjLQf9j5KtRYem0wdSNwo6yTfAYVqVEtMF7AcAHyIZ1tYXB4Y3RleGdtdmFvdmht.7c652072538b0397be47c580efdf6a502141caeb&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=где+пакеты&amp;baobab_event_id=lqv0dl103d</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>где пакеты</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://kdvonline.ru/catalog/konfety-1</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>заказать конфеты</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://sinergels.ru/?utm_referrer=https%3A%2F%2Fwww.yandex.ru%2F</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>где купить синергель</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>http://actravel.ru/europe.html</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>где европа</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://oreh-dom.ru/orehi/</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>орехи заказать</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://pornorusskoe.top/cat-s-prostitutkami/</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>заказать порно</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>http://memesmix.net/meme/fhtu3c</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>где даша</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://ipaper.by/news/sekrety-proizvodstva-kak-delayut-bumagu-segodnya.html</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>изготовление бумаги</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://vkusvill.ru/goods/pazhitnik-shambala-semena-zoloto-indii-71146.html</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>пажитник где купить</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://autotouchstudio.ru/?utm_referer=geoadv_direct&amp;utm_ya_campaign=180782441885&amp;yabizcmpgn=15482081&amp;utm_source=geoadv_direct&amp;utm_candidate=59131135021&amp;utm_content=15630995402&amp;etext=2202.RzZYioVKZNE2cOkXsO2sGb2NfzUGWCB2sf5Hy_F_vhQIBNFZ62-2qszjkorw5ARhdmx3eXhqc2F6cmt2cXVocw.9451027fc4e60878e6bd9ae9ad7a603a512de6ec&amp;yclid=17221953522648743935</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>ремонт царапин</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://www.elitnyisadovnik.ru/eshche-uslugi/avtopoliv/</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>заказать автополив</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://my-toxic-store.pw/store</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>где купить яд</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://www.cigarpro.ru/drinks/sherry/</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>херес где купить</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://lavka.yandex.ru/213/category/ryba_i_moreprodukty</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>заказать рыбу</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://fit-trade.ru/repairs/prays-list-na-remont/</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>ремонт тренажеров</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://gorzdrav.org/catalog/vazelin/</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>где купить вазелин</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://www.forumhouse.ru/journal/articles/6504-delaem-samomesnyi-beton-chast-pervaya</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>изготовление бетона</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://www.maximonline.ru/entertainment/sdelat-seks-igrushku-id147366/</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>изготовление секс</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.metalloizdeliya.ru/metallokarkasy.php</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>изготовление металлокаркасов</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://amwine.ru/blog/napitok-piratov-i-kolonistov-chto-vy-znaete-o-rome/</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>ром изготовление</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://texnoplast.ru/uslugi/izdeliya-iz-plastika-na-zakazi/tara/</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>изготовление тары</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://giprint.ru/izgotovlenie-udostoverenii-na-zakaz/</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>изготовление ксивы</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://www.poseidonstroy.ru/cena/</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>изготовление бассейна</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://pechatimsk.ru/</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>штамп изготовление</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://www.msk.okna-servise.com/plastikovye-okna/proizvodstvo/</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>изготовление евроокон</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://indexdata.ru/korob</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>лайтбокс изготовление</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://su-misura.ru/galstuki-na-zakaz.html</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>изготовление галстуков</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://pechatimos.ru/po-ottisku</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>изготовление оттисков</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://media.mts.ru/technologies/135308/</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>как пользоваться</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://www.gardenstock.ru/catalog/traktory-i-minitraktory/</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>минитрактор купить</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://oknagm.ru/heLpFulL/rEgUlIRovKA-pLASTiKOVyIx-oKon</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>как отрегулировать</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://poembook.ru/poem/2802332-kak-kholodno-%2813082022%29</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>как холодно</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://chemodany-remont.ru/</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>ремонт чемодана</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://www.tsum.ru/catalog/kedy-19741/</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>где купить кеды</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://manufactura-maket.ru/</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>изготовление макетов</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://dostavka-eda.com/moscow/place/siciliya_novodevichij_proezd_4/</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>сицилия заказать</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://dzen.ru/a/Xa6IOh6OPwCw3q-p</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>ремонт бесплатно</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://www.joom.ru/ru/best/myagkie-bigudi-dlya-volos</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>заказать бигуди</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://uniqston.ru/catalog/rotonda/</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>изготовление ротонды</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://ftruck.ru/</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>изготовление фудтраков</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://goodiplomaz.com/tseny.html</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>купить диплом</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/companies/npoechelon/articles/321754/</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>как узнать</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.invitro.ru/moscow/library/bolezni/27529/</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>сифилис как</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WWyejI_zOoVX2Lde0GqG0AETRoOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErmAZ4R0WCW9fHfTImIP8B64DCBeMYI4f9HajIBfx80fcpDIW18juA7q6x274cYfmA3ZEFNgKO1swaLLW7RgnQC0xTHhgW3j4-V1fLBeFPr009kqqIddQ-8SGVY9q8qrfpjKHKluGvYsezBxYJ-Zj-t4er0f7iNj--byvb2xpfqtxhJpf-ryshXJQbk0W_MEvvq9zWzkaUh62_N8jqGFEPzlc6oyoxAdaoXIW9ITnVdGQjYRPt4-j1gsz5HDsVjmwukg4M-OCnBvFTEJTD5mZ-X1Fs0k15IcNZm2s6Bm5g7EoVsWSbTcuslo25FOMgWYen93RkfOC9EETOBvHkP6Em7msu25wIgLoYLOgLGsdr17MAmROGCR5aqzJ_RT84J83tFGr_R1251f_5y3qhpVQq2QztD9U47ztOl5GVbQlrMbxsVzLfK-ffc9jSWiCx4Mbt4-7fjml9RqqRi6N_PqMUOKFTdNqI5s-J7jmGQC8mth_5UfBL47cz_Ikgu_jYNgOFDQFsGBk6hFPptDp9LAfT9gjSG1EqR7G9ULdx1HX75QZvsV5VnCG8EQ4XfRKWgGdnU-d9iEJDGTVcjHettR2rxyYlHvEete_3dx-JCHQbZmNHnM5OFH3C6InwAMWKzOUTj-K000~2?etext=2202.Sek7y5xwKjzPmrPOzHTtZHa1AnYrwY6R3KNDhDm6BWZ2eG95eHZudHJ2c3BlbXpk.f9a4be8c45dc545fb33c66e567d3e6e36a4c5fee&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=заказать+егрн&amp;baobab_event_id=lqv14mcw7j</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>заказать егрн</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://smotrim.ru/article/3343641</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>где салют</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://www.labirint.ru/books/728269/</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>как видеть</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://www.print4u.ru/uslugi/promyshlennaya-shelkografiya/gibkie-plenochnye-klaviatury</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>клавиатура изготовление</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://travelask.ru/russia/anapa/map</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>анапа где</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://www.geoinformer.com/kak-otsledit-avtomobil-po-glonass/</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>где машины</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://chaudeau.ru/karavay</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>заказать каравай</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://okna-remont-24.ru/services/remont-okon/remont-steklopaketov/</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>ремонт стеклопакета</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://postupi.online/journal/kuda-postupat/ucheba-vybiraem-pravilno-gde-uchitsya/</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>где учиться</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://www.bmwin.ru/service/remont-bmw/</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>ремонт bmw</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://glavglass.ru/produkciya/izdeliya-iz-stekla/steklo-na-zakaz/</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>изготовление стекол</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www.drive2.ru/c/599106019984956928/</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>ремонт стеклопластика</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://prostogroup.com/redizain-saitov/</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>заказать редизайн</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://vernik.me/catalog/kompjutery/macbook/</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>где купить макбук</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://komus-opt.ru/</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>комус заказать</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://megamarket.ru/catalog/kletchatki/</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>клетчатка где купить</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WY0ejI_zOoVX2LaF0fKG06ETRoOQbKeGJD3dSxcpP_kTEs-uy_KxNc-umoMHT2GauqX8Xf5Lnf6IqWoT7J1bSqQAKG5YIQNVy9HpMo021Xt72KJ42ldw-l0KTRP2IVpEl5DEpbYcNZqAq4wzg0hGJhru5A2TUaqLe7tYFBXK2hsd4mXWapOwvNmlw4eEFuIz7Nq-xoa-nQTH_7RYqIZKnfrsFRsTJ-XztxVpQUDEgMq13lQ46rYOf1EmBzYDrpzccTkJQ2L9WkLcBu8Y18yhJGYC-SustcNPXnzXDgYpE1zQ3NlpBCw7LiEMdgef-_ESaSZlcPwaYuPxH0_w0NCXe3BruX70je0lwfpS3oftPJO-2ziONMU03qeCkRb7vhi6BOWDJp1TfLAv12kLokOJwWYBTIDiOCEYgUV9lW_qQFjX-aUYaWys00hoVtNI9hzN9stoSnFuhltTQ_KH-LelHMNrirwAoeffzbfdpBBNEfkWu-pHQPbbEh5j8PTw6zWH2Tr8q-CRMc_qJcTzcSRDVEV97fYuyFou0m_s48MGovx_Ej1bYXyYkCkKFwxNIY0r90kYpz9IRLlCNAbKAgrMuXaxHiUmlA3yohQp2vPYiF0W6_m0pHZ-l_PpFgZ9BNmL8N_3qnK2Hji1YmTjdmEBE9HB4zJVEVo6NC7gBkDl3GobhNYXGbsvwoVMeNaeb_ZYyEEG9AaAV0ZKK5Ia5rPQZpKU~2?etext=2202.5ypnpj_kl2GYMDJ_40LpUj31P4MXqUHK3Rdm5ixMviDsepp18lT8fW6OZFxUwmMjbmhxYmxxa2NtZXlxdHN1eg.ae7743553e2674b47b151814431ac206d8a2048f&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=где+купить+гипс&amp;baobab_event_id=lqv190r2fm</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>где купить гипс</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://www.v-kran.ru/evakuator.htm</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>изготовление эвакуаторов</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://russpecavto.ru/proizvodstvo/proizvodstvo-avtotsistern/</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>изготовление цистерн</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://studfile.net/preview/16378897/page:14/</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>изготовление заготовок</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://kakproverit.ru/</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>как проверить</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://www.rbc.ru/tags/?tag=Евгений%20Пригожин</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>пригожин где</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://apteka.ru/product/psillium-750-mg-30-sht-kapsuly-massoj-750-mg-6220c4790a67abc98eb910bd/</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>псиллиум купить</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://supway.store/?etext=2202.D2ya_L6R8X1033cwX-0psPX0dkEFsok5uegmMtSVITZ6bWxjamNkd2JudnlwZmF0.cb5633881fc8482d488a9eeda13ae07018db131b&amp;yclid=10154904416560349183</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>купить сап</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://intrigue.dating/interesnoe/chto-otvetit-na-vopros-kak-jizn/</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>как жизнь</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://avtokranarenda.ru/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=autumn2014sb_moscow&amp;utm_content=platforms_rent_general&amp;utm_term=&amp;roistat=direct1_search_618525534_аренда%20вышек%20автомобильных&amp;roistat_referrer=none&amp;roistat_pos=premium_4&amp;etext=2202.t213NFKHHJhR1puNAqn1IQk-D5IielfNrbF7MR9ne8UQuoVF0Q6isXlp4I3Kjj4fbHFlb214bWh4Z3d0ZHpiYQ.2bef5afa1a3764eb425db0c18168f00762c65d2d&amp;yclid=3086602986195779583</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>заказать автовышку</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://remont-gidrocilindrov-tut.ru/services/remont-gidrotsilindrov-v-moskve-i-mo/</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>ремонт гидроцилиндров</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://obrazovaka.ru/kak-pishetsya/srednee-specialnoe.html</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>среднеспециальное как</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://asc-rem.ru/remont-videokart</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>ремонт видеокарты</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://habr.com/ru/articles/505698/</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>где делают</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://autoreshenie.ru/remont-steklopodemnika_001/</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>ремонт стеклоподъемника</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.velograd.ru/catalog/velosipedy/</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>где велосипед</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://frezerist.ru/moskva/konusy</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>изготовление конусов</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://profi.ru/remont/remont-sotovyh-telefonov/</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>телефон ремонт</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WbWejI_zOoVX2LaH0rKI0ADVTYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6Ezod4vzAeTEfyvdVKjk9v_VpVawTTZw5JgTFwDFvbERJAGqZ8o2hab4HYIMa4KSpZewMaexiW2cRCrAgRA7OelGRa4G4FkKmw3XElNeKe9rwKHMWdNhnA40xzPegGFl4UN2f57fF9n309crqolawmAIg082v_vRJ7ShI-2MQHwFvCvexfxaJQa-Vp-Vjj7CRh_CeBiMTUNu_dpRkbDeMu63z5gl3nq4cPpov6oyW0uT9YCpEvnic6--ox5d5zENZBCw7LiFUF8lpeTMmfQTgohu7auwg6l66EIEHtpCzIHSDzuWUz0FcGa1bwiKZWAt7Qhr5g7DoFwZSbTducZp25BOMdhnCCUIcZWKpwLWnc6yapux75teRa62wIgLo2LOgbSqdr14MwqROm8P5Ky-JVGD04lV3ANHCVd2TfV5_3QYJ-ru3wkG-byGQsjzzcztZrtekRfQVzLpSB4mp35mIPXa6BadCco6FE9meCfRUlQCl-pShONMUxElwlcr-J7km0Kss50NzLuH9nS4iaug3SLxhX_2DSTjyrdlTFrq1XxN8eAYb7T7CNAbKAgrMunexHiV0343vXogWVsRE0F019_o0CJYujzyxR2RG002ipU2pAcQ6rBozLdOjLDqdYrQTnKA2caS8Ohe1_J8KlT10CLCOTA4LR3Ou34_xkD2e8uW3uHcqydbfnvizeIVm0i__RJrDCw5y7-V5pFo0npX3JsQog7nrCv5SMDb0Ibe0~2?etext=2202.DvS6tesxh3JKn57CZTUAT4ftzWoE-Mnw-PXXK24g9ft5emxuZWZodHl3Y3dwamNu.c06b4539662ba7d51a3a92bb97b5f72bd2ea72d0&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+hp&amp;baobab_event_id=lqv2h0xxmb</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>ремонт hp</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://kipmu.ru/panda/</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>где панда</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://www.obed.ru/restaurant/subway-5549/</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>заказать сабвей</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://www.onlinetrade.ru/catalogue/otvertki-c4632/</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>где купить отвертку</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WeSejI_zOoVX2LdI0iqJ01FaXYOQbKgbKga4mQHY0LsvqmJwV2vtzco_S-SDTxv-n-iDTxZtT8e_dq-dVUC_qIaqnvzF6x_j7-dqjgNs_RIXFrAdCtf3dqDK96kHLSRFqH4DwezIaH6H5UbdHX0IrUe2oQfKP0qQSNH4Wqgu0wPipaW9ea4362ZzXZqhpgCb1Xr77sNRzKlZMY5oHMTB8x1m2f4fF_YSfbuz2j1ElQWAq4wzU1IWdNfD5Q1zuZouL0gzfnC8O9CsEkLyJPmxu5WHHG4PETqMO8P8FeIP7xpU0zUPttVDeiUdbjfsVkFv3NK-etOKAetQpXotQsVqASMVJzosdpRkbDeNu61zKuz1ldBXs9GRRzVNhso7oOSZS7istcLP0cQ5KL9-R9t5-T1gs9jdSJwq6hRqL4svH9XJrvoHoE-PdgIBXdj43_e1So6WClNY4S0s0rWHwfpS3oftPJQ-9Wyu2bieOJ7afeu5C-bOfyWf28qNr1lsOBfAfN89LYgLpIVK4HRhHjZ0XaLJpvDzZxZeFxoSsvfziFynPF1_VPOZrFVwB4Uep_LkMSQ_CvdSENujqm-Sv6UPVk0aJ3CDfiOiqs1gz8wwFgp_baVl78Girj7R5hwSi_YOvSbUx8WHAZ-cFJY43oizelmt27ABb-ktjAxhKY2tUBbUw_TmePEXptgl-qQoReHBcvMmjoEQcIkLIgNLYadKZj4nBF-KFykqh9P1PM4Z7Fm13D3ROM3Gdt93XZLZY-s_gRPqUTjiuWO_kdvimNEEzmNdZYSFfZPtCkA8bJ-gVos_0aN8ny-5Ha_jYCz_8vSjZedn16_gnXSr--7FfOQ-mpcB2fsmaaY3j000~2?etext=2202.PY5hnYPzo0ykTd-mFdQ4IdzySDL_wY1zNzzYojMEx5ACFEhc2-8wkZWi8b_lc2fsdWJtcnZneGlkYXZrZWp0cw.c267aa2bfae2b6686adf365960910995bffec226&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+митсубиси&amp;baobab_event_id=lqv1qawyj4</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>ремонт митсубиси</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://cosmetic-solutions.ru/kontraktnoe-proizvodstvo-shampunej/</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>изготовление шампуней</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://project01.ru/site/pages/action/tekhnicheskoe-obsluzhivanie-ognetushitelej</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>ремонт огнетушителей</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://recoverit.wondershare.com.ru/windows-tips/show-hide-find-recycle-bin-windows.html</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>где корзина</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/category/elektricheskie-chajniki-12977/</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>заказать чайник</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://depolimer.ru/uslugi/vosstanovlenie-rolikov-valov-i-koles/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=Produkcia&amp;utm_content=Campaign_54312734%7CGroup_4286743803%7CAd_9559632002%7Cdevice_desktop%7Cregion_Москва%7Cpos_premium_1&amp;utm_term=Восстановление%20валов&amp;etext=2202.-U95U8lN74iaN6EOMWPj6D1EgiVCpzjKw5Bk8GVqEVhsa3FndXVrcG1qb2hpaGR0.1ba71ca2f695b1ec827003666b1e4ef33647b602&amp;yclid=7607088504649023487</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>ремонт валов</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://gor-zabor.ru/remont-zabora</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>ремонт забора</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://krasivieteplici.ru/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=82572462&amp;utm_content=15077816521&amp;utm_term=---autotargeting.desktop.Москва.43041739756.none&amp;block=premium.1&amp;source=search.none&amp;etext=2202.DhL-dIMSrZc7Oe4v2izS0QNGBf5Eyu0UnXoJQzVnRZi0qBi_915_RCKqq49mGSXAaHhidGFvY3Rrbmljb2p3aQ.700a4a7b63178862d6c02094661f1cd0e3f26de6&amp;yclid=16054129634755477503</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>изготовление теплиц</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://www.alva-group.ru/uslugi/izgotovlenie-rukavov-vysokogo-davleniya/</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>изготовление шлангов</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://hi-tech.mail.ru/review/59201-kak-skachat-video-bez-programm-s-lyubogo-sayta/</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>как скачать</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://moto.drom.ru/moskva/moped/?query=%EC%EE%EF%E5%E4%FB+%E1%2F%F3</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>мопед купить</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://ggsel.net/catalog/minecraft-10054</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>minecraft купить</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WfSejI_zOoVX2LaL0qqK00FaXYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzpwESsbKNmwnM-edQCgHCq1dKQZp-aTVK9pL8LavAWA1ULmvgWANOEGSjoudTjsxeHAyHnLeHb7JgSpUazpq4WY-gaMKP60Z8f-Q2G96HtXK_lfTDOX2D58iWO98IdHi0vPQnf2HI5GWshhqGqb4i-fVTiad5FxjeUCwYGYgj3Ga92D93jWokOCOeru94pfDpZrgCg0mg3ZEFNgKO1swaLLW7RgnQC0xTHhgW3j4-V1fLBeFPr009kqqIddQu9Sk2p00l0sftjT8zCYjQLupQB7fyPl6xUdzpHgsyufzFcCvZVkTDer3irnMthVqFjfuqwfVG4ErXicMLBcHHU8hRln4XfzWpoMW9DTdAkxtWO9jxXdSJxEudnq2KuTgH5lc3CI-JtJatJHS8_eGJzWBWHKfbuy0jXYy1QXpidze79NPkDhKZbHs7eAEio4iZzIv366tDInO2OTwnIv09U7ifaDJZ1TfLAv12kLokOJwWYBTIDiOCEYgUV9lWU0AVbXxyLs-C4rHGp_zuAJh--zuEJhSpEKeVpT0YUJNrl22TVFbd32nJGpoL-OPIRvIuOWTrfBgQOolIlviWV2OuUL9_klkDpenxG76z2r8wlFVv7I5XFt_9RMTTqnRJ5npskzzujVszbdFStCbKgbqceroCEEqJ4m1L1-3vfeq3sP9QW39FoAmqVvNWv_cWt1sF6t0XGcnA9dEA8EvA7Cf00gkoHYfaOVejhORaCnX50ajSO9ed51n9ogNgZ1uEIWmnpAlbwUOdxhDKHoKhoJt7b8ZehpLs2H11z_OnU3gUBDoh0RyrWqaku8Ap-lRGe0~2?etext=2202._0Q5-lY0hVksJICWh8_ksrLeyuJMqJKrKvzMBvJqgBCN7RIDCyzqKBez5CB7gyIibmhhaXNydXpnY2Vsd3dxdg.94d10c31c0722c950dcc57217a6fe27118fc1e58&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=электрочайник+купить&amp;baobab_event_id=lqv35mzyff</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>электрочайник купить</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://www.mvideo.ru/smartfony-i-svyaz-10/smartfony-205/f/brand=honor</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>хонор купить</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://rus.hitmotop.com/song/73519581</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>где она</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://gorzdrav.org/category/antidepressanty/</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>антидепрессанты купить</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://pechati.ru/uslugi/печати-с-доставкой-по-москве-и-области/</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>печать заказать</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://shaurmu-hachu.ru/delivery/</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>шаурму заказать</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WauejI_zOoVX2LbW0WKI0ACXVYOQbKgbKga4mGHzFfSxUxRVkVDTNpjVl-FrXZlS9vArXZCwdTvIAJwLGfzGw7Cg0sa92CcgP3sggqL6H5QakaQE7J1bSmPn9qW3HKg_eKhxgCM5GSVHptc_cAxWchvmwMnz5dUFZuqCJ4vmwjMZ0EtKYwe0xTIBHm7QgTTK0TedpeDBfT1xEe40DccZKyxNH1T7k0rkDCpbT8Nk78ry23C_UBq7xftdUCsYnwV6RzlEeLFSXawTqgWJUakdqDkkRrlgj9-vzBwVDkwKsXRWOBrXaYLbNdI1sBeRhxU3Onnae_CIvhtPdvP041DaSZxVCDbubsLFhBGTZrPdSJwq6lRcMPmFhOOjFLLJdgaHRvWp4lazqvDqqN2Fw44_O2u4LAPUF0BO5g3zOgBEoVsWSbTcuslo25FOMdZouYM6tDInO2OTAmRpZLoWHWm6LpPKmNILIkKIh5Ggcq-e8opMZR213OkcdYVxDh_C9dTPrjmBk0F_iDSXXSW7GyV8_lTvPVozpolZpotH9Fwxz_iRyhK-x2JbPttOIGhJp2JInYmpYRGnnyobDsQvUqaYRbLmfBX0qZjDzcLF18zBdITx8k98A3-cFTW0h32ms7-BTkoHbHbtx96LlTQVBU6E3OzePgvKAfLMAoYETeoEOGc2yd_vMWIsBH4WGnNyretFsHX8iJ2I72qkFTe1f3zXBtOBPwsL4MjuLflcP_EBLBmAsdaejN7-7bpvq7vGHtU65twoQD5boZk9EH5MGkNn7W00~2?etext=2202.F8k7kukbGuzhosU7_7VPq_PVUsFnm2OiiYQtGTXovgZ0YW1xcWtvZmViY2ppd2N6.9d1396ef6cd1164a2dbd285391e5420d6b78fec6&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=ремонт+спб&amp;baobab_event_id=lqv328dd2c</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>ремонт спб</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://rktuning.ru/uslugi/remont-sidenij/?utm_source=yandex&amp;utm_medium=cpc&amp;utm_campaign=57920704&amp;utm_content=10071312237&amp;utm_term=Ремонт%20сидений&amp;etext=2202.h7jG8iDlGGEnfjTunKINTxyrXEB6jcUmsafwOYC6txWLNQbIQCOgSCkXfFNOTHRBZ2dicXN0bXJlbG13aHprZg.f1d487269fb9ce3335a1af3531fb32d038b8ddb7&amp;yclid=15374797016875925503</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>ремонт сидений</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://yandex.ru/maps/geo/nalchik/53119643/</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>нальчик где</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://www.technopark.ru/pylesosy/</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>где купить пылесос</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/We8ejI_zOoVX2Ldu0gKJ05FYW2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzmJEGWR1OYdYZi7OQC0qNFd86pdZpFFfTBxjl6edUE6vj4xj-zRcgCgHCsHHvzJ9nGgbTuvga8oSaYVqsT-F_4SLQ4Wew4aAb5jDQfXf5H4HQ8IKKai8Oq84YgYoa0oEh9Qgq1sm9JD6KG5p3fmeFGRXfX0j9F1eEC8zALZYk5PB0YYpZO0FAISpSZIlaHElNeKe9rwKHMWdNhnA40xzPegGFl4UN2f57fF9n309crqolbMsDuf-H3s7xnv40zSt1crQnOzFZL-sq_dVKkbkGrzJcqRntCScjTI-tRcTtIAtqyRTqfj2t2mtZ39aZ8lka1iNLfTYRQX1yxd6oORxxAC0YjlU69dSJwq6lRcMPmFhORjd978xvcUf8k6UqGF-W5p8Q0ozU8Hm3RdYpedzuFANPcDJqQly2-6t1IBNC1AEWVTC0IcgrGgbs2bKjbyGXrXiMw43MnODFKysTTRAGB-CBF84IOVpDDazRyX6gc-DqGZrUUEO5BsTuy8vErh_VRnoS_wxUCJffc6miOiqr3OOf940UonuSfEZDvtV3dcpCZrP0vhJrj-J7imZbO97zT_e-8VVOf-6os2P33AQqjO5OaQ-wn74snIDGKh6IMAcIkLIgNLQd267QDZM9gLln3ggaTF14iy9lpVQzAHXNn7F_m9op4y9RUAuq5D22d1FGpbPdPGUXza-x5wbuQA7w-jJqEtcQig9LB3YQ9gXdj1bTtTq-CZRoFp6mvGNn7tH8JaRXWyN8z-yyH7vhg4UMIPbBSksYuIrZ9qO0THL84kh5GczJW0~2?etext=2202.R5mgCW2pMvp_VxcMXFnJzLoVVH-pFLeUnnZD5ubNcqJ8WWwObp9Mg_0DsY5k-hPQendsZnV1bHJmbW1yZ2RpbQ.6e2e38813332c8b83eedc2c87bea5b137b0fba2e&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=амарант+где+купить&amp;baobab_event_id=lqv34rgwv3</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>амарант где купить</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://spb.santehnika-online.ru/vodonagrevateli/?utm_source=direct&amp;utm_medium=cpc&amp;utm_term=где%20купить%20водонагреватель&amp;utm_campaign=poisk-vodonagrevateli-obshchaya-0-moskva-none-19355250&amp;utm_content=ct:type1%7Cc:19355250%7Cg:1587565667%7Ca:2279899275%7Cpid:6135714850%7Cr:6135714850%7Cst:search%7Cs:none%7Ccoef:14239556%7Cdev:desktop%7Cgeoname:Москва%7Cgeoid:213%7Cmt:%7Ctrg_n:%7Cmk:%7Ctrg_id:6135714850%7Cpt:premium%7Cpos:4&amp;yclid=793199843756998655</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>где купить водонагреватель</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://www.livemaster.ru/itemlist/zazhigalki</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>где купить зажигалку</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://otziv.top/review/gde.ru/</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>сайт где</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WXiejI_zOoVX2LaI0cqG05DTRoOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErmQIKGcIDn8EXAQ4PHaBH9AMWAgPoG9YTW1KpPd40UePXXI-WrEtHyGv1Xq74yuOL6zOVUwndIsKp_2A6I1uR7KrAj70Tgf5rK1sgaNZmAqKw-f0hHFd0UNIg7tT081RD96fvol2IiounRS8rHokZIGz95pgVI9tzCd_injfrFgp9svz3bzulKzZTft7eK-xwUDEwMs1JXORvXaIPaNNI2sxiOR00LsgfGq7QpuFJsx-E0AfpoUnVauY_C1bhNuDcSaydkc9-cYuHxHWtx0N0YeJBru1B3rMAst27LExWULkp8RNvD7cCBMKz1X9fHZfE2znP2REXRCf6F58XVG0AU2tmOdcAvIgLo2bKfbymbrXCMw4JQmOT7KysHV1AAKVzYBNVNuu0B2J_xNWuxzUptes3zt9oluTw_32vMlhT5rzxCrkkwOPfX18SmopA0GvZX6RmdO3KbsaTwRlko_Xpt4dkpbhApT-J7jmGR0YLL9zDyZj2T39FsMrdMz4Ut944clzTuu9NLRcfahbKgbrGhA3Jj6nx3CeFmaucuUo6BZIY8P_CFmRQ2z1o5D5JA8A4M_QWjSEEoxLTYhyP2VfyJxpzd5Xk_15PIsnZWKq_DOIflpdtj22TuHwIvwRinlcM7lG3s6yYzsE1LMlkK16W00~2?etext=2202.7db2GMuAAgDQR46znW7mJpbeNhQflUDQVkrkQ5vn7Mt_ofuvJqyOuUqojq083LNkaW1sYXZ0bHZub2RkYnNueg.462cedfd67c0e416b996108fc94c84ff31bf4aab&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=заказать+чипсы&amp;baobab_event_id=lqv2znb8a8</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>заказать чипсы</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://www.google.ru/maps/d/viewer?mid=1RQrWQPDOT0LKXql_DpkSH5M4DjZM8Vfz&amp;ll=20.216068095066554%2C90.56134065101467&amp;z=5</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>мьянма где</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://service-xiaomi.com/</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>ремонт ксиаоми</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://tekstura-krasnobogatyrskaja-ulitsa.clients.site/filter-category/_recomenduemoe/?utm_referer=geoadv_direct&amp;utm_ya_campaign=172286021103&amp;yabizcmpgn=9305519&amp;utm_source=geoadv_direct&amp;utm_candidate=52069163952&amp;utm_content=14172050546&amp;etext=2202.kBE7UfmVNejhA29rTn2E7fTDtn2_YWSRJSuiO5-3dZ52yTgdSqClmQemwwHnLzk8emtxdmJkZHdwbG5iaXByeA.60cba521bccb11404649dc5b27aa630abd070f23&amp;yclid=14807132279621550079</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>ремонт джинсов</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/Wb0ejI_zOoVX2LaC0nKI03DUS2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6Ezodytb7fpVkZ4AbU9v7e_Vp-RppANGgVTvsz7P6SToeghHaL6J3IAc8QXqA6c73XWtl3fYoEOC88dBQfVGRiXb4eT9Xq77qTk4g8MzboHrnEblF64L7TwpAZi0gJvm7bqgXztG20MpIHgUSxumVLE3mV2gjMVJurFXju_Vpjd7S-SIXTYx5fpWEhMqREerEdKxyVjguKsfRW8FrXacMb7dH1MBhW7mx_0pGX9Dj0cRZNPOjuRYuNAYpE1zQ3NlpBCw7LiEMdgef-_ESaSZlcPwaYuPxH0_w0NCXe3BruX70jW9rJku7bRio6r-JHvZ2rbFGOIQKQIDbuHXoKyVYCUbOfyW5I51Am8CDMPYkKgbSWfLAPVC9TOJ5kX4si67HrFDaNnmxz1zUagtCFjZlq8FyNoD08jzh14ZaS_tJv9Q_Cu7qUFArIo9RnvzT4jawCitCGo3CClCGY5pT6E67QgAbz-MWBtydmq1FzctbBgCVqnuSOajW5aB_fK4uLyKAuLmLGg_rtInOudQVzSnSgLGghLQ34-mO7GEpWl9hy1T1JeaY8L04A_o0CJYujpyxR2QXAW2iHQUu361tmPKbhOx9ucgliPOGKUjDyHmqsL9DWlw-Lu70q6afuFH821OZ5DO_18mt4tXKG4Pyv_faMiGF6yjEDv4KYk4Aw7a33yu6FRxRxlmff622byhAYwQgs3X_4NkpOz5FOtXqjwXs9AoKoE0z~2?etext=2202.LxBTZ6jyDC4KxNX6ZSd8jQjUyWoE1In7KoxZ4yCzuMRvtZ_RHmEsghBf-rawLEzmmLbsiTufkg6vUuCvhiKa_nZ2aGxieG9xeGZyYWJ4dWw.18fd16dd00da39c07316df2a1fcf49a079551b5b&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+билбордов&amp;baobab_event_id=lqv32qkqca</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>изготовление билбордов</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://foxford.ru/wiki/matematika/tochka-pryamaya-raspolozhenie-tochek-na-pryamoj</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>где точка</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://megapteka.ru/moskva</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>где купить лекарство</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://zvero.ru/moskva/obyavleniya/sobaki</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>где купить щенка</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://aliexpress.ru/</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>алиэкспресс заказать</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://boxberry.ru/market/category/ris/price-do-100/</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>где купить рис</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://stroy-podskazka.ru/samorezy/kak-delayut/</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>изготовление саморезов</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WXeejI_zOoVX2La10cKG0CETS2OQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6Ezmbf15K6aDBIZMAZ9IGg1jsm9JD6KG2OBG9AfM79Ho5qC4N1Xr77uSTBq6CgzBMgBFrY8TUlkZ0egeoEFNgKO1swaLLW7RgnQC0xTHhgW3j4-V1fLBeFPr009kqqIddUrrxAfi-eJMB7fyQlsqeZZ-XjntDdJVqcKkbzlHfrz2d4x_j-tdVJnjtIkqBSB3UCCcICY-wG6pTZPS4b2zXA2DSpFHkzWIeNXM4p-Vp3PE79MDMRBpBCbjDIHaGiBCu7reDU_CipeTMmtREIEJtJ4_IHSCzeWVzWBaGK9bwyGXWMy0NTKxk1vMxCXjVamSSXIsMfdCCkQbZyPXqh5Fa0ZCIEuWTbW3JLIgLIx1IgMm-eOwmM3V21ZOicdgUxEkXAlA7QzIHFtW0lyN_5M0golSAC1NbSssuZNzNselxsXQJZ3_ROfAHQMOQxc2McOOxmCvlvGw4EYRftUdBthl5m_DalwOhulanxS4Xvh9_KVvxhT98DgxII3RsMXyMcMIBpcUzr_sN9rkpu93mbkg8PkPAfL9fjO8YPyVe69PU-UT2CBcUu7iR0XJyN4SBPEQA9Wr2pFPDVx7Rsg4AT5GW3jbqc_oZioh-QKuy1DjvVf_Z_9bcWZn3aGHVNiKkQBy5RdGy5dLhuecHJLZPe65G~2?etext=2202.6pZ1E_Pm0j2amgAuiquBaZKoteiorV4aQoNGz2k2rN4TXi-4dwSOBdsVWNGKVGkKcmF2aXJieWxqc3BnbnNuaw.9d71d2ab9c1d9cf1f1fb039e0546d0df85ab9f11&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=изготовление+тубусов&amp;baobab_event_id=lqv313dee3</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>изготовление тубусов</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://рекламное-производство.рф/catalog/izgotovlenie-shtenderov/</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>изготовление штендера</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://www.rion.ru/products/udostovereniya_propuska/</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>изготовление пропусков</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://modul-tehno.ru/</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>изготовление ларьков</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://lenta.ru/articles/2023/06/06/ubrat_boka/</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>как убрать</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://moscow.mot-motor.ru/snegohody/</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>купить снегоход</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WhGejI_zOoVX2Lcg0ZKL02DdbIOQbKgbKga4mQIY0GxAdIRGvtEvisVxdJlVzRNpzJjURxZ3jKi06HNPC0fACY8Y6g6swoAZEaY8Y5fqeofKbVxapcZq1ogLJd-WFxbq-aCbCgh-A5bfK2VueSeGAgBnWsG4H2twkM4q8sd8oEU7oAZwS-D64H46FrOQGaL6I4eqh4FM7wEZdnj8Ha1K2dvkK74WML7yL41111YWQD7paqUTqJpwenIqL3L2EYAnX3G2oMeTEXfHP3Iu0wPipY1ABwYkKFeDsozK4s30eEFefmX-CI4wHl4ogBFrZMDLc9wkx8rPEbeT9XCnK701JUW2mjwf0EuJvy6bKkWzdK00cxJHAUTxmOYI7H_2onoFrYnwV6hyjgDG9pINEctf4y-T-3FwnADsVUDI9pItfz7xQUDEgMq13jOR9bbIvaKNYAsxyRwfQL1MSN4-tp3PU9Tb8QoG1E7HTXRdGwjXRvx5-T1gsD9JDUKv8v7VCpr95mttY1xq0-P2G2M6EYVtWyfTcOqlWS582bjFGOUPKFv1n37afguxCMcnJf4BWCM69JPiORfAfN89LYgLpIVK4HRhHjZ0XaLJpvDzOtJiF_nXl7zmqulnVvjQNj_RrFBwN1WYMVxE8U_7rtBmwlXP3buTJ3DC5HYp35C5nXm7uCDF2Tr8qsC_viCA3QPWjzEx06iymlIMEVPb3u9WPvxyGSUMbH_J7lpXXnKchF-UqFOmKkUvjAxhHhGzZDJv7ORAsPKdLePqyxpMZ_cmSaGpSwLIgRHQHH5Xn-WObcNAptL1nmChiYYD41VyPqYmv-Blp1J6a3h5qFAPw--chw2NKK5NBt1JJnq8o7oup8Fgul0H8euI41uMJ7gyPldpfqe92Ubo7vfgAhE9LHtg5iNHOOILiW9F1m00~2?etext=2202.oiAjRwEXLKD_5esO6jVKxmJ-CXLXURBHAR-yVYa_UPF3c3Z6bXl2dndlZmp2emto.040b82541ec9d0b817e79d29dc1c479db1a71f4c&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=arduino+купить&amp;baobab_event_id=lqv38yssjj</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>arduino купить</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://ria.ru/person_Sergejj_SHojjgu/</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>шойгу где</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.komandirovka.ru/cities/koledinoaew/</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>коледино где</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/ru/support/servicelocation/</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>ремонт samsung</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://aptekasy.ru/stolichki/</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>столичка заказать</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://dic.academic.ru/dic.nsf/ushakov/957294</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>где н</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://admgel.ru/city/general_information/geography/</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>геленджик где</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://riamo.ru/article/680942/gde-zakazyvat-tovary-iz-za-granitsy-v-2023-godu-12-servisov-dostavki</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>можно заказать</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/Wd4ejI_zOoVX2LcI0nqJ00EWTYOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6EzpxPuhRKMUUs_VJ_e7sE6-dZzHvEwVIwDIEIg7F4NXkJtCy-WIohNcrHb0KA6gj9eb0H3LI2a9QAXe2eW8bIUkwhej60Dm1KpPd4F4W8Q0f_OQz33JOU1Xq75U4rxfJfaWbOTFPBXF9P_iS8fKYJvm7bqgXztG20MpIHgUSBqoKbhaFuUKTdTOiUdng_BQTKcb-I_EeSmgzepdK-OHAwrlgd4gZKJnwFstSARKhmC5wmoHBohpe0h5rDzw-dnz1cx2q_T36koox40R7HGtiBCw7LiFUF8lpeTMmfQTgoZbwZRvXpaZazqnFqaN3FQ87_O2v4539yl7nyV4feSx9_Q1oLsRZSrBOoamo0OaXOu3ITISc7Qj7Bl0MuyI33NimNQLIkGGhbShc4-e8YtKZR633egddoRvUx4huXt-M2Dq71qc9yh_EA_3tEg_0dpj5tFhxCYidzxMURWYFd_LqGtWmpJHWbrcc0RjB_BZow4QQ7Yzta1cJqE0DajWuUb-E-V8Cb4Mn9rlmaMZsOzg3QRPNh1RzbmD4xLqKelOkociBmABZwuZFUcQkL2gLLgl1IJj6ny2qKluXNZqzVjmPKYxyCImjPmuaNFjdppq319-UiUvaPRQn0xnk8GNfX3Nc6SHpVZ4AriKAd0Y6wSgSwQ_4Yz4El3iRQre54d4v1b8by-KZUXOIpG42OO6efzfvNj0uLV6K1a6X3PSZp0RQW0mLIu9ZC-XnpTpvene3B0gb8gVpOZ1VSZCZYyUwJb41jh1IcHgP~2?etext=2202.5RIrnKgpZ-g6M8jNoNfkPQ_h8n-q5ZDznlCACFmobWV2am1sdWVraXV0c3h2dWtj.7a97e135db88a8df0e6b2774907c851b310f8ee2&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=гпзу+заказать&amp;baobab_event_id=lqv380w3av</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>гпзу заказать</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://lifehacker.ru/kak-nauchitsya-pet/</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>как поют</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://gortorgsnab.ru/servis-i-obsluzhivanie/remont-tehniki/remont-shtabelerov/</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>ремонт штабелеров</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://av.ru/catalog/osoznannyy-vybor/vegan/tofu-i-syry/</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>тофу где купить</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>http://www.bolshoyvopros.ru/questions/552503-kak-krasivo-razukrasit-risunok.html</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>как разукрасить</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://old.bigenc.ru/geography/text/3252173</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>аргентина где</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://q59.ru/category/chto-bylo-dalshe/</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>где дальше</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://mdregion.com/catalog/metalloiskateli/naznachenie/</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>где купить металлоискатель</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>https://service-scanner.ru/sadovaya-tehnika/gazonokosilki/benzokosilki/</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>ремонт бензокосилок</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>https://nazya.com/freeshipping/product/klassicheskie-kastet-samooboroni-neobhodimie-instrumenti-otkritij-instrument-modi-naklz-4sht-7-mm-cs001-4_739591456.html</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>заказать кастет</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>https://eda.yandex.ru/retail/d/krahmal</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>где купить крахмал</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>https://uslugi.yandex.ru/213-moscow/category/remont-i-stroitelstvo/remont-kvartir-i-domov--1816</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>яндекс ремонт</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>https://yabs.yandex.ru/count/WdGejI_zOoVX2Ldq0ZKJ01FYVoOQbKgbKga4mGHzFfSxUxRVkVE6Er-_u_M6ErmJzlsKEgFtFOtUk1D_vYEeDOoKacu06GtDGAg7g4L8IpDma5X26f5qb4IbGQt1OmTCsPn1Z1fcUL7w3LVB34X4W477SSVmYvRo4HreK3fRJnZc1qLtQ1QtdNhrA40xzQ8gG3lrub60TkerLO3sYVFWKYdqdauWW4tQw9JpTI16gLGgbSgSBemlKJq-X9aVlDu3rudVqff5Zq-DttRqTavpPtv7xQTjIvrv55fBfr6d58hdqVjfuqwfRG4ErXicMLBcHHU8hRlnmYJ1sgFICbTaycOdWG0VK0fov_CDKrePOvZNMPmFhOQzUHRdGwjXI-kwhkir-eOv8v7VCpr95mttY1xq0-P2G6NgnIE0RG5Q9YRgdDmFAdTbDhuc3pWAMpSjKp7afeu5C-bOiSW5x0BWCS26AvYkKgbSWfLAPVC9TOJ5kX4si67HrFDatxy3oW_JUC7xu0jhUlyx0wRxtXamtUTYsChwEmDtNxuMIXNuir2gGARvqpqnov_kYJbcBhqnovtP59UTkx6IkALtPfSl-pEdFYjFzcYHM61-J7jm26qXbQB_1XsHyjVdjxIkwrAEIFdhyrg_KsMfqkYptkj-ofsWuQ2EHyAz8vgPAvLAfTKgoeuTesDOFYh_OfPRHmnDoeWV_CRPiatvNcUIy5FfeHTSXc5WlkfP1dhcGaIC9e8O1SjPOYzKMXv6FCGyuXa5MSG2Udrcf_c0U28s9qzd_V0HvYbnKH3EWwbry-_X42IipoDudtQwwB8p_1yBExvqmigChz82~2?etext=2202.BK9GY8lwgFsWUQ9uHe0dbmYlULaS3AZZ3t7vvnMNao1Z6nrRKU0DJOC_PgwT7P82Ym9sbGlpZWhxemxjY2x1ZQ.6bb0740bd49d651d3b30e01ee069f4fb1212c570&amp;from=www.yandex.ru%3Bsearch%26%23x2F%3B%3Bweb%3B%3B0%3B&amp;q=заказать+статью&amp;baobab_event_id=lqv38t1g1j</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>заказать статью</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>https://www.express-office.ru/kanctovary/dlya-shkoly/dlya-chertezhnykh-i-kopirovalnykh-rabot/vatman/</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>где купить ватман</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>https://moskva.satom.ru/k/kreolin/</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>где купить креолин</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>https://bytovka-moscow.ru/</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>изготовление бытовки</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>https://www.nur.kz/leisure/diy/1734225-skatulka-svoimi-rukami-iz-kartona-i-tkani/</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>изготовление шкатулок</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>https://366.ru/g/fenibut/</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>фенибут купить</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>https://www.mos.ru/map/</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>карта где</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>http://www.bolshoyvopros.ru/questions/2362119-kak-obychno-vydeljaetsja-zapjatymi-ili-net.html</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>как обычно</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>https://dostyp-balkony.ru/</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>ремонт балкона</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>https://omoda.ru/</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>omoda купить</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>https://moscow.petrovich.ru/catalog/245635348/</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>заказать стройматериалы</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>https://www.fok-chempion.ru/sport/kak-bystro-nakachat-myshcy</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>как качаться</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>https://travelask.ru/russia/krym/map</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>где крым</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>https://muscle.rumassa.store/product-category/oralnue-preparatu/turinabol/</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>туринабол где купить</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>https://night2day.ru/chtivo/nightlife/tancuyut-vse-gde-tancevat-v-moskve-letom-2023-23-june-2023/</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>где танцуют</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>https://kudamoscow.ru/</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>где куда</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>https://x7.brutal-market.online/steroidi-inekcionnie/trenbolon/trenbolon-miks/</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>где купить тренболон</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>https://vkusvill.ru/goods/kurkuma-vysokogornaya-molotaya-zoloto-indii-71153.html</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>где купить куркуму</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>https://avtomir.ru/new-cars/</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>закажи машину</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>https://leroymerlin.ru/advice/sad/kak-sdelat-sadovye-kacheli-svoimi-rukami/</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Информационка</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>изготовление качелей</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>01.01.2024</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>https://vasha-besedka.ru/catalog/verandy-terrasy/</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Коммерция</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>изготовление веранды</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>skonkof@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
